--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE36F3A9-6350-4F05-8897-ED0706372926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A414A518-BA04-4188-836B-99F485D34E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="35" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2020'!$A$1:$AK$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2021'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$1:$AK$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$Y$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$AB$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'2006'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'2007'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="15">'2008'!$A:$A</definedName>
@@ -95,7 +95,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 4 September 2023, 12pm</t>
+    <t>Data Last Updated: 2 October 2023, 12pm</t>
   </si>
 </sst>
 </file>
@@ -976,23 +976,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA35" sqref="AA35"/>
+      <selection pane="bottomRight" activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="8.7265625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="28" width="8.7109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1003,9 @@
       <c r="Q1" s="6"/>
       <c r="T1" s="6"/>
       <c r="W1" s="6"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1030,8 +1031,11 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44927</v>
@@ -1073,8 +1077,13 @@
       </c>
       <c r="X4" s="71"/>
       <c r="Y4" s="72"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4" s="70">
+        <v>45170</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="72"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1169,8 +1178,20 @@
         <f t="shared" ref="Y5" si="11">V5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="7" t="str">
+        <f>W5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="AA5" s="7" t="str">
+        <f t="shared" ref="AA5" si="12">X5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="AB5" s="12" t="str">
+        <f t="shared" ref="AB5" si="13">Y5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1196,8 +1217,11 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="13"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1249,8 +1273,11 @@
       <c r="Y7" s="19">
         <v>-123</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="19"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1302,8 +1329,11 @@
       <c r="Y8" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1373,8 +1403,11 @@
       <c r="Y9" s="19">
         <v>-121.09972399999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="19"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1432,8 +1465,17 @@
       <c r="Y10" s="19">
         <v>-119.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z10" s="18">
+        <v>-18.455715000000001</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>-57</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>-121.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1491,8 +1533,17 @@
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="19"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z11" s="18">
+        <v>-19.757646999999999</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>-56.947432999999997</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>-120.302299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1556,8 +1607,17 @@
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="19"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z12" s="18">
+        <v>-19</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>-57</v>
+      </c>
+      <c r="AB12" s="19">
+        <v>-121.04032100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1615,8 +1675,17 @@
       <c r="Y13" s="19">
         <v>-119.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z13" s="18">
+        <v>-17.739172</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>-57</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1668,8 +1737,17 @@
       <c r="Y14" s="19">
         <v>-117</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z14" s="18">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>-55.900939999999999</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1727,8 +1805,11 @@
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="19"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="19"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1792,8 +1873,11 @@
       <c r="Y16" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="19"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1851,8 +1935,17 @@
       <c r="Y17" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="18">
+        <v>-17.507565</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>-56.5672</v>
+      </c>
+      <c r="AB17" s="19">
+        <v>-119.57083900000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1910,8 +2003,17 @@
       <c r="W18" s="18"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="19"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="18">
+        <v>-18.667224999999998</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>-56.249599000000003</v>
+      </c>
+      <c r="AB18" s="19">
+        <v>-120.85122699999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1975,8 +2077,17 @@
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="19"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="18">
+        <v>-18.087116000000002</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>-55.875</v>
+      </c>
+      <c r="AB19" s="19">
+        <v>-121.18289900000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -2040,8 +2151,17 @@
       <c r="Y20" s="19">
         <v>-122</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="18">
+        <v>-17.5</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>-55.914287999999999</v>
+      </c>
+      <c r="AB20" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -2099,8 +2219,17 @@
       <c r="Y21" s="19">
         <v>-122.655762</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="18">
+        <v>-17.474411</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>-55.920577999999999</v>
+      </c>
+      <c r="AB21" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -2164,8 +2293,11 @@
       <c r="Y22" s="19">
         <v>-123</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="19"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -2235,8 +2367,11 @@
       <c r="Y23" s="19">
         <v>-121.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="19"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -2294,8 +2429,17 @@
       <c r="Y24" s="19">
         <v>-122</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24" s="18">
+        <v>-17.492543999999999</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>-55.75</v>
+      </c>
+      <c r="AB24" s="19">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2353,8 +2497,17 @@
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="19"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" s="18">
+        <v>-18.5</v>
+      </c>
+      <c r="AA25" s="18">
+        <v>-55.5</v>
+      </c>
+      <c r="AB25" s="19">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2418,8 +2571,17 @@
       <c r="W26" s="18"/>
       <c r="X26" s="18"/>
       <c r="Y26" s="19"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" s="18">
+        <v>-18.014897999999999</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>-55.689137000000002</v>
+      </c>
+      <c r="AB26" s="19">
+        <v>-119.166664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -2483,8 +2645,17 @@
       <c r="Y27" s="19">
         <v>-122</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" s="18">
+        <v>-17.821425999999999</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>-57.191611999999999</v>
+      </c>
+      <c r="AB27" s="19">
+        <v>-121.32096900000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -2542,8 +2713,17 @@
       <c r="Y28" s="19">
         <v>-122.93575300000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="18">
+        <v>-17.526713999999998</v>
+      </c>
+      <c r="AA28" s="18">
+        <v>-57.191611999999999</v>
+      </c>
+      <c r="AB28" s="19">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -2601,8 +2781,11 @@
       <c r="Y29" s="19">
         <v>-122.61779799999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="19"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -2666,8 +2849,11 @@
       <c r="Y30" s="19">
         <v>-122.61779799999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="19"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -2725,8 +2911,17 @@
       <c r="Y31" s="19">
         <v>-122.61779799999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="18">
+        <v>-17.299999</v>
+      </c>
+      <c r="AA31" s="18">
+        <v>-56.25</v>
+      </c>
+      <c r="AB31" s="19">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -2784,8 +2979,17 @@
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="19"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32" s="18">
+        <v>-17.634561999999999</v>
+      </c>
+      <c r="AA32" s="18">
+        <v>-55.161780999999998</v>
+      </c>
+      <c r="AB32" s="19">
+        <v>-119.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -2849,8 +3053,17 @@
       <c r="W33" s="18"/>
       <c r="X33" s="18"/>
       <c r="Y33" s="19"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" s="18">
+        <v>-17.949052999999999</v>
+      </c>
+      <c r="AA33" s="18">
+        <v>-55.5</v>
+      </c>
+      <c r="AB33" s="19">
+        <v>-119.34903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -2908,8 +3121,17 @@
       <c r="W34" s="18"/>
       <c r="X34" s="18"/>
       <c r="Y34" s="19"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" s="18">
+        <v>-18.502195</v>
+      </c>
+      <c r="AA34" s="18">
+        <v>-56.649307</v>
+      </c>
+      <c r="AB34" s="19">
+        <v>-119.90222900000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -2949,8 +3171,17 @@
       <c r="Y35" s="19">
         <v>-120.72067300000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" s="18">
+        <v>-18.611464000000002</v>
+      </c>
+      <c r="AA35" s="18">
+        <v>-57.400002000000001</v>
+      </c>
+      <c r="AB35" s="19">
+        <v>-120.338531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -3008,8 +3239,11 @@
       <c r="Y36" s="19">
         <v>-121.25</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="19"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -3067,8 +3301,11 @@
       <c r="Y37" s="19">
         <v>-121.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="19"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3094,8 +3331,11 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="14"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="14"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -3124,8 +3364,11 @@
       <c r="W39" s="25"/>
       <c r="X39" s="25"/>
       <c r="Y39" s="25"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -3154,8 +3397,11 @@
       <c r="W40" s="25"/>
       <c r="X40" s="25"/>
       <c r="Y40" s="25"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -3182,8 +3428,11 @@
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -3194,9 +3443,11 @@
       <c r="Q43" s="69"/>
       <c r="T43" s="69"/>
       <c r="W43" s="69"/>
+      <c r="Z43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
@@ -3208,8 +3459,9 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
+  <colBreaks count="2" manualBreakCount="2">
     <brk id="13" max="42" man="1"/>
+    <brk id="25" max="42" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -3221,16 +3473,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="33" width="9.1796875" style="1"/>
-    <col min="34" max="34" width="9.1796875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="9.140625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -3238,12 +3490,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3252,7 +3504,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>41640</v>
@@ -3315,7 +3567,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -3426,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3465,7 +3717,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -3542,7 +3794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -3631,7 +3883,7 @@
         <v>6.8797199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -3730,7 +3982,7 @@
         <v>7.9595000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -3825,7 +4077,7 @@
         <v>11.26601</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -3908,7 +4160,7 @@
         <v>10.82766</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -3991,7 +4243,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -4086,7 +4338,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -4175,7 +4427,7 @@
         <v>8.9414499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -4264,7 +4516,7 @@
         <v>8.0665099999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -4365,7 +4617,7 @@
         <v>8.1378400000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -4460,7 +4712,7 @@
         <v>7.3314599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -4549,7 +4801,7 @@
         <v>7.3314599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -4632,7 +4884,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -4727,7 +4979,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -4814,7 +5066,7 @@
         <v>7.7393400000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -4903,7 +5155,7 @@
         <v>7.7393400000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -5004,7 +5256,7 @@
         <v>11.533899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -5093,7 +5345,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -5182,7 +5434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -5271,7 +5523,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -5360,7 +5612,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -5443,7 +5695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -5532,7 +5784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -5633,7 +5885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -5716,7 +5968,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -5793,7 +6045,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -5882,7 +6134,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -5971,7 +6223,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -6060,7 +6312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -6145,7 +6397,7 @@
         <v>22.097799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -6210,7 +6462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6249,7 +6501,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -6265,7 +6517,7 @@
       <c r="AJ39" s="27"/>
       <c r="AK39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -6280,7 +6532,7 @@
       <c r="AJ40" s="51"/>
       <c r="AK40" s="51"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -6292,12 +6544,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -6306,6 +6552,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6323,16 +6575,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="26" width="9.1796875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="23" width="9.140625" style="1"/>
+    <col min="24" max="26" width="9.140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -6340,12 +6592,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6354,7 +6606,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="71">
         <v>41275</v>
@@ -6417,7 +6669,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -6528,7 +6780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
@@ -6567,7 +6819,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -6650,7 +6902,7 @@
       <c r="AJ7" s="24"/>
       <c r="AK7" s="30"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -6739,7 +6991,7 @@
         <v>-4.3499999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -6828,7 +7080,7 @@
         <v>-4.38</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -6929,7 +7181,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -7024,7 +7276,7 @@
         <v>-4.2833300000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -7111,7 +7363,7 @@
         <v>-4.4517499999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -7200,7 +7452,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -7283,7 +7535,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -7360,7 +7612,7 @@
         <v>-4.7586899999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -7443,7 +7695,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -7532,7 +7784,7 @@
         <v>-4.9000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -7621,7 +7873,7 @@
         <v>-4.6500000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -7708,7 +7960,7 @@
         <v>-4.6500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -7797,7 +8049,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -7886,7 +8138,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -7975,7 +8227,7 @@
         <v>-5.5134999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -8064,7 +8316,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -8165,7 +8417,7 @@
         <v>-5.1417200000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -8260,7 +8512,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -8349,7 +8601,7 @@
         <v>-4.5102900000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -8438,7 +8690,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -8533,7 +8785,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -8622,7 +8874,7 @@
         <v>-4.45</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -8705,7 +8957,7 @@
         <v>-4.6344700000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -8800,7 +9052,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -8889,7 +9141,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -8976,7 +9228,7 @@
         <v>-4.6344700000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -9065,7 +9317,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -9148,7 +9400,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -9237,7 +9489,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -9308,7 +9560,7 @@
         <v>-4.3639700000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -9347,7 +9599,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -9367,7 +9619,7 @@
       <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -9379,7 +9631,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -9388,12 +9640,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -9402,6 +9648,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -9420,14 +9672,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -9435,12 +9687,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9449,7 +9701,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40909</v>
@@ -9512,7 +9764,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -9623,7 +9875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9662,7 +9914,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -9739,7 +9991,7 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -9828,7 +10080,7 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="37"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -9923,7 +10175,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -10012,7 +10264,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -10113,7 +10365,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -10208,7 +10460,7 @@
         <v>-1.76</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -10297,7 +10549,7 @@
         <v>-4.28</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -10380,7 +10632,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="36"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -10469,7 +10721,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="36"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -10564,7 +10816,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -10653,7 +10905,7 @@
         <v>-2.84</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -10748,7 +11000,7 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -10843,7 +11095,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -10932,7 +11184,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -11015,7 +11267,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="36"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -11110,7 +11362,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="36"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -11205,7 +11457,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -11294,7 +11546,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -11389,7 +11641,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -11484,7 +11736,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -11573,7 +11825,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -11656,7 +11908,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="36"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -11745,7 +11997,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="36"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -11834,7 +12086,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -11917,7 +12169,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="36"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -12006,7 +12258,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -12107,7 +12359,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -12196,7 +12448,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -12279,7 +12531,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="36"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -12368,7 +12620,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="36"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -12445,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -12484,7 +12736,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -12500,7 +12752,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -12512,7 +12764,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -12521,12 +12773,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -12535,6 +12781,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -12553,16 +12805,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="24" width="9.1796875" style="1"/>
-    <col min="25" max="25" width="8.81640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="8.85546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -12570,12 +12822,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12584,7 +12836,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40544</v>
@@ -12647,7 +12899,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -12758,7 +13010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -12797,7 +13049,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -12892,7 +13144,7 @@
         <v>-23.11</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -12975,7 +13227,7 @@
         <v>-20.329999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -13058,7 +13310,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -13147,7 +13399,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -13236,7 +13488,7 @@
         <v>-20.170000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -13325,7 +13577,7 @@
         <v>-20.059999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -13420,7 +13672,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -13515,7 +13767,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -13598,7 +13850,7 @@
         <v>-11.69</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -13687,7 +13939,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -13782,7 +14034,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -13871,7 +14123,7 @@
         <v>-16.059999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -13960,7 +14212,7 @@
         <v>-15.22</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -14061,7 +14313,7 @@
         <v>-10.44</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -14156,7 +14408,7 @@
         <v>-10.56</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -14245,7 +14497,7 @@
         <v>-15.21</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -14328,7 +14580,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -14423,7 +14675,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -14512,7 +14764,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -14601,7 +14853,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -14702,7 +14954,7 @@
         <v>-17.329999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -14791,7 +15043,7 @@
         <v>-16.059999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -14880,7 +15132,7 @@
         <v>-16.72</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -14969,7 +15221,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -15064,7 +15316,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -15141,7 +15393,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -15230,7 +15482,7 @@
         <v>-15.25</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -15331,7 +15583,7 @@
         <v>-17.940000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -15420,7 +15672,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -15497,7 +15749,7 @@
         <v>-14.11</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -15568,7 +15820,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -15607,7 +15859,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -15626,7 +15878,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -15638,7 +15890,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -15647,6 +15899,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
@@ -15654,13 +15913,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -15679,14 +15931,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -15694,12 +15946,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15708,7 +15960,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40179</v>
@@ -15771,7 +16023,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -15882,7 +16134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -15921,7 +16173,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -16016,7 +16268,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -16105,7 +16357,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -16194,7 +16446,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -16283,7 +16535,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -16372,7 +16624,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -16461,7 +16713,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -16550,7 +16802,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -16651,7 +16903,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -16740,7 +16992,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -16823,7 +17075,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -16912,7 +17164,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -17007,7 +17259,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -17096,7 +17348,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -17185,7 +17437,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -17280,7 +17532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -17369,7 +17621,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -17452,7 +17704,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -17541,7 +17793,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -17630,7 +17882,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -17719,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -17808,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -17909,7 +18161,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -18004,7 +18256,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -18093,7 +18345,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -18182,7 +18434,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -18277,7 +18529,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -18366,7 +18618,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -18449,7 +18701,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -18544,7 +18796,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -18633,7 +18885,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -18698,7 +18950,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -18737,7 +18989,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -18756,7 +19008,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -18768,7 +19020,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -18780,12 +19032,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="T4:V4"/>
@@ -18794,6 +19040,12 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -18812,14 +19064,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -18827,12 +19079,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -18841,7 +19093,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>39814</v>
@@ -18904,7 +19156,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -19015,7 +19267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -19054,7 +19306,7 @@
       <c r="AJ6" s="32"/>
       <c r="AK6" s="36"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -19131,7 +19383,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -19232,7 +19484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -19327,7 +19579,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -19416,7 +19668,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -19505,7 +19757,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -19600,7 +19852,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -19689,7 +19941,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -19778,7 +20030,7 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -19879,7 +20131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -19962,7 +20214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -20051,7 +20303,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -20140,7 +20392,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -20235,7 +20487,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -20324,7 +20576,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -20413,7 +20665,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -20514,7 +20766,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -20609,7 +20861,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -20698,7 +20950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -20787,7 +21039,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -20882,7 +21134,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -20965,7 +21217,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -21054,7 +21306,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -21155,7 +21407,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -21250,7 +21502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -21333,7 +21585,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -21416,7 +21668,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -21499,7 +21751,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -21588,7 +21840,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -21677,7 +21929,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -21772,7 +22024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -21837,7 +22089,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -21876,7 +22128,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -21892,7 +22144,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -21904,7 +22156,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -21913,6 +22165,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -21920,13 +22179,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -21945,14 +22197,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -21960,12 +22212,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -21974,7 +22226,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>39448</v>
@@ -22037,7 +22289,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -22148,7 +22400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -22187,7 +22439,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -22264,7 +22516,7 @@
         <v>-112.71</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -22353,7 +22605,7 @@
         <v>-110.5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -22448,7 +22700,7 @@
         <v>-101.43</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -22549,7 +22801,7 @@
         <v>-93.75</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -22638,7 +22890,7 @@
         <v>-80.569999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -22721,7 +22973,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -22810,7 +23062,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -22893,7 +23145,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -22982,7 +23234,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -23077,7 +23329,7 @@
         <v>-62.44</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -23178,7 +23430,7 @@
         <v>-56.25</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -23267,7 +23519,7 @@
         <v>-63.17</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -23350,7 +23602,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -23445,7 +23697,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -23540,7 +23792,7 @@
         <v>-45.25</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -23629,7 +23881,7 @@
         <v>-42.88</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -23724,7 +23976,7 @@
         <v>-24.75</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -23825,7 +24077,7 @@
         <v>-22.75</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -23908,7 +24160,7 @@
         <v>-20.38</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -23991,7 +24243,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -24080,7 +24332,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -24175,7 +24427,7 @@
         <v>-14.25</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -24264,7 +24516,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -24359,7 +24611,7 @@
         <v>-6.75</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -24454,7 +24706,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -24543,7 +24795,7 @@
         <v>-7.56</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -24620,7 +24872,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -24715,7 +24967,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -24810,7 +25062,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -24897,7 +25149,7 @@
         <v>-12.43</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -24968,7 +25220,7 @@
         <v>-12.75</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -25007,7 +25259,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -25023,7 +25275,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -25035,7 +25287,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -25044,12 +25296,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -25058,6 +25304,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -25076,19 +25328,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -25100,7 +25352,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="71">
         <v>39083</v>
@@ -25163,7 +25415,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -25274,7 +25526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
@@ -25313,7 +25565,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -25390,7 +25642,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -25479,7 +25731,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -25568,7 +25820,7 @@
         <v>-160.63999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -25657,7 +25909,7 @@
         <v>-160.75</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -25758,7 +26010,7 @@
         <v>-160.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -25847,7 +26099,7 @@
         <v>-159</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -25936,7 +26188,7 @@
         <v>-155.71</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -26019,7 +26271,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -26108,7 +26360,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -26197,7 +26449,7 @@
         <v>-154.75</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -26286,7 +26538,7 @@
         <v>-155.57</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -26387,7 +26639,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -26482,7 +26734,7 @@
         <v>-148.25</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -26571,7 +26823,7 @@
         <v>-145.07</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -26660,7 +26912,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -26755,7 +27007,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -26844,7 +27096,7 @@
         <v>-144.63</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -26933,7 +27185,7 @@
         <v>-147.56</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -27028,7 +27280,7 @@
         <v>-150.81</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -27111,7 +27363,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -27200,7 +27452,7 @@
         <v>-150.75</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -27289,7 +27541,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -27384,7 +27636,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -27473,7 +27725,7 @@
         <v>-152.41999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -27556,7 +27808,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -27657,7 +27909,7 @@
         <v>-155.11000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -27752,7 +28004,7 @@
         <v>-153.43</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -27841,7 +28093,7 @@
         <v>-149.13999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -27924,7 +28176,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -28013,7 +28265,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -28084,7 +28336,7 @@
         <v>-146.63</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="11"/>
       <c r="C38" s="4"/>
@@ -28123,7 +28375,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -28140,7 +28392,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -28161,7 +28413,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -28210,19 +28462,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="16" width="8.7265625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -28234,7 +28486,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>38718</v>
@@ -28297,7 +28549,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -28408,7 +28660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -28447,7 +28699,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -28530,7 +28782,7 @@
         <v>-140.36000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -28613,7 +28865,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -28708,7 +28960,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -28797,7 +29049,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -28886,7 +29138,7 @@
         <v>-142.13999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -28987,7 +29239,7 @@
         <v>-142.12</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -29082,7 +29334,7 @@
         <v>-142.28</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -29171,7 +29423,7 @@
         <v>-143.33000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -29254,7 +29506,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -29343,7 +29595,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -29432,7 +29684,7 @@
         <v>-144.71</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -29515,7 +29767,7 @@
         <v>-146.21</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -29616,7 +29868,7 @@
         <v>-148.44</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -29705,7 +29957,7 @@
         <v>-146</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -29794,7 +30046,7 @@
         <v>-145.75</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -29883,7 +30135,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -29978,7 +30230,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -30067,7 +30319,7 @@
         <v>-145.21</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -30156,7 +30408,7 @@
         <v>-142.5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -30257,7 +30509,7 @@
         <v>-143.96</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -30352,7 +30604,7 @@
         <v>-145</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -30441,7 +30693,7 @@
         <v>-144.5</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -30530,7 +30782,7 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -30619,7 +30871,7 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -30702,7 +30954,7 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -30791,7 +31043,7 @@
         <v>-143.13999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -30892,7 +31144,7 @@
         <v>-139</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -30987,7 +31239,7 @@
         <v>-138</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -31070,7 +31322,7 @@
         <v>-141.44999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -31147,7 +31399,7 @@
       <c r="AJ36" s="24"/>
       <c r="AK36" s="30"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -31218,7 +31470,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -31257,7 +31509,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -31274,7 +31526,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -31295,7 +31547,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -31313,6 +31565,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
@@ -31321,11 +31578,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -31349,14 +31601,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -31372,7 +31624,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -31411,7 +31663,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44562</v>
@@ -31474,7 +31726,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -31618,7 +31870,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -31657,7 +31909,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -31746,7 +31998,7 @@
         <v>-43.381798000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -31817,7 +32069,7 @@
         <v>-43.381798000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -31888,7 +32140,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -31983,7 +32235,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -32066,7 +32318,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -32155,7 +32407,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -32244,7 +32496,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -32333,7 +32585,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -32416,7 +32668,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -32505,7 +32757,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -32594,7 +32846,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -32683,7 +32935,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -32772,7 +33024,7 @@
         <v>-50.074573999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -32873,7 +33125,7 @@
         <v>-50.074573999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -32962,7 +33214,7 @@
         <v>-53.5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -33045,7 +33297,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -33134,7 +33386,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -33217,7 +33469,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -33300,7 +33552,7 @@
         <v>-51.567619000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -33389,7 +33641,7 @@
         <v>-51.567619000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -33490,7 +33742,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -33585,7 +33837,7 @@
         <v>-53.712940000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -33674,7 +33926,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -33757,7 +34009,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -33852,7 +34104,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -33935,7 +34187,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -34018,7 +34270,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -34119,7 +34371,7 @@
         <v>-47.419811000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -34202,7 +34454,7 @@
         <v>-53.262946999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -34285,7 +34537,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -34356,7 +34608,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -34395,7 +34647,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -34437,7 +34689,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -34479,7 +34731,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -34519,7 +34771,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B43" s="69"/>
       <c r="E43" s="69"/>
       <c r="H43" s="69"/>
@@ -34564,14 +34816,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -34587,7 +34839,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -34626,7 +34878,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44197</v>
@@ -34689,7 +34941,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -34833,7 +35085,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -34872,7 +35124,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -34961,7 +35213,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -35044,7 +35296,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -35127,7 +35379,7 @@
         <v>8.384665</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -35210,7 +35462,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -35299,7 +35551,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -35388,7 +35640,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -35471,7 +35723,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -35572,7 +35824,7 @@
         <v>9.3874999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -35661,7 +35913,7 @@
         <v>8.5643609999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -35750,7 +36002,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -35839,7 +36091,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -35928,7 +36180,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -36011,7 +36263,7 @@
         <v>8.6627729999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -36100,7 +36352,7 @@
         <v>8.6663619999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -36201,7 +36453,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -36296,7 +36548,7 @@
         <v>5.5313569999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -36385,7 +36637,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -36474,7 +36726,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -36569,7 +36821,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -36652,7 +36904,7 @@
         <v>4.7213419999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -36741,7 +36993,7 @@
         <v>4.5996290000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -36842,7 +37094,7 @@
         <v>4.7197969999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -36937,7 +37189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -37026,7 +37278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -37115,7 +37367,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -37204,7 +37456,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -37287,7 +37539,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -37364,7 +37616,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -37453,7 +37705,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -37536,7 +37788,7 @@
         <v>5.5195020000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -37595,7 +37847,7 @@
         <v>5.5195020000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -37634,7 +37886,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -37676,7 +37928,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -37718,7 +37970,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -37758,7 +38010,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B43" s="69"/>
     </row>
   </sheetData>
@@ -37792,14 +38044,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -37815,7 +38067,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -37854,7 +38106,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43831</v>
@@ -37917,7 +38169,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -38061,7 +38313,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -38100,7 +38352,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -38177,7 +38429,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -38272,7 +38524,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -38373,7 +38625,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -38462,7 +38714,7 @@
         <v>-4.889996</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -38545,7 +38797,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -38640,7 +38892,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -38729,7 +38981,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -38812,7 +39064,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -38907,7 +39159,7 @@
         <v>-4.8000189999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -38990,7 +39242,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -39079,7 +39331,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -39162,7 +39414,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -39251,7 +39503,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -39346,7 +39598,7 @@
         <v>-5.1249549999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -39429,7 +39681,7 @@
         <v>-5.4800570000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -39524,7 +39776,7 @@
         <v>-5.9385909999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -39625,7 +39877,7 @@
         <v>-6.2798730000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -39714,7 +39966,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -39797,7 +40049,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -39892,7 +40144,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -39987,7 +40239,7 @@
         <v>-5.3012699999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -40076,7 +40328,7 @@
         <v>-4.7213529999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -40171,7 +40423,7 @@
         <v>-4.9633099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -40272,7 +40524,7 @@
         <v>-4.9633099999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -40349,7 +40601,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -40432,7 +40684,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -40521,7 +40773,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -40610,7 +40862,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -40699,7 +40951,7 @@
         <v>-4.9318270000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -40794,7 +41046,7 @@
         <v>-4.7359830000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -40853,7 +41105,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -40892,7 +41144,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -40934,7 +41186,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -40976,7 +41228,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -41047,25 +41299,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43466</v>
@@ -41128,7 +41380,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -41239,7 +41491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -41278,7 +41530,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -41361,7 +41613,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -41450,7 +41702,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -41539,7 +41791,7 @@
         <v>-30.137229999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -41640,7 +41892,7 @@
         <v>-30.631321</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -41723,7 +41975,7 @@
         <v>-31.000039999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -41800,7 +42052,7 @@
         <v>-31.632811</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -41889,7 +42141,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -41984,7 +42236,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -42067,7 +42319,7 @@
         <v>-30.5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -42156,7 +42408,7 @@
         <v>-28.511520000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -42255,7 +42507,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -42344,7 +42596,7 @@
         <v>-29.088421</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -42433,7 +42685,7 @@
         <v>-29.312460000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -42522,7 +42774,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -42617,7 +42869,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -42706,7 +42958,7 @@
         <v>-29.492598999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -42795,7 +43047,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -42896,7 +43148,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -42985,7 +43237,7 @@
         <v>-29.075990999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -43068,7 +43320,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -43157,7 +43409,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -43246,7 +43498,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -43335,7 +43587,7 @@
         <v>-25.83567</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -43424,7 +43676,7 @@
         <v>-26.786159999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -43519,7 +43771,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -43602,7 +43854,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -43685,7 +43937,7 @@
         <v>-30.107869999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -43768,7 +44020,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -43857,7 +44109,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -43946,7 +44198,7 @@
         <v>-31.736319999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -44017,7 +44269,7 @@
         <v>-29.924980000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -44056,7 +44308,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -44065,7 +44317,7 @@
       </c>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -44074,7 +44326,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -44112,14 +44364,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -44135,7 +44387,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -44174,7 +44426,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43101</v>
@@ -44237,7 +44489,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -44348,7 +44600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -44387,7 +44639,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -44464,7 +44716,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -44553,7 +44805,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -44642,7 +44894,7 @@
         <v>-64.665367000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -44731,7 +44983,7 @@
         <v>-65.172150000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -44832,7 +45084,7 @@
         <v>-67.064507000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -44921,7 +45173,7 @@
         <v>-68.145988000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -45004,7 +45256,7 @@
         <v>-67.625</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -45093,7 +45345,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -45182,7 +45434,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -45271,7 +45523,7 @@
         <v>-66.682861000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -45360,7 +45612,7 @@
         <v>-67.892212000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -45461,7 +45713,7 @@
         <v>-66.225066999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -45556,7 +45808,7 @@
         <v>-67.367171999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -45645,7 +45897,7 @@
         <v>-67.634086999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -45728,7 +45980,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -45817,7 +46069,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -45906,7 +46158,7 @@
         <v>-66.099997999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -45995,7 +46247,7 @@
         <v>-65.037079000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -46096,7 +46348,7 @@
         <v>-64.347412000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -46191,7 +46443,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -46280,7 +46532,7 @@
         <v>-64.5</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -46363,7 +46615,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -46458,7 +46710,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -46547,7 +46799,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -46630,7 +46882,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -46725,7 +46977,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -46814,7 +47066,7 @@
         <v>-63.488010000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -46897,7 +47149,7 @@
         <v>-65.467690000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -46974,7 +47226,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -47057,7 +47309,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -47134,7 +47386,7 @@
         <v>-67.365836999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -47173,7 +47425,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -47215,7 +47467,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -47257,7 +47509,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -47299,6 +47551,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -47306,11 +47563,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -47328,25 +47580,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42736</v>
@@ -47409,7 +47661,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -47520,7 +47772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -47559,7 +47811,7 @@
       <c r="AJ6" s="18"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -47636,7 +47888,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -47719,7 +47971,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -47814,7 +48066,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -47903,7 +48155,7 @@
         <v>-31.941050000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -47992,7 +48244,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -48093,7 +48345,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -48188,7 +48440,7 @@
         <v>-32.770000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -48277,7 +48529,7 @@
         <v>-32.5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -48360,7 +48612,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -48449,7 +48701,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -48538,7 +48790,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -48627,7 +48879,7 @@
         <v>-34.5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -48728,7 +48980,7 @@
         <v>-35.609791000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -48817,7 +49069,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -48906,7 +49158,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -48995,7 +49247,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -49084,7 +49336,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -49167,7 +49419,7 @@
         <v>-37.919781</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -49256,7 +49508,7 @@
         <v>-37.337448000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -49357,7 +49609,7 @@
         <v>-37.365318000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -49452,7 +49704,7 @@
         <v>-36.362941999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -49541,7 +49793,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -49630,7 +49882,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -49725,7 +49977,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -49808,7 +50060,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -49885,7 +50137,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -49986,7 +50238,7 @@
         <v>-37.932048999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -50075,7 +50327,7 @@
         <v>-38.476661999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -50152,7 +50404,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -50229,7 +50481,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -50306,7 +50558,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -50345,7 +50597,7 @@
       <c r="AJ38" s="49"/>
       <c r="AK38" s="50"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -50354,7 +50606,7 @@
       </c>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -50363,7 +50615,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -50401,25 +50653,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42370</v>
@@ -50482,7 +50734,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -50593,7 +50845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -50632,7 +50884,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -50727,7 +50979,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -50810,7 +51062,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -50893,7 +51145,7 @@
       <c r="AJ9" s="24"/>
       <c r="AK9" s="30"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -50988,7 +51240,7 @@
       <c r="AJ10" s="24"/>
       <c r="AK10" s="30"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -51083,7 +51335,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -51166,7 +51418,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -51261,7 +51513,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -51356,7 +51608,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -51433,7 +51685,7 @@
         <v>-11.75</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -51516,7 +51768,7 @@
       <c r="AJ16" s="24"/>
       <c r="AK16" s="30"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -51611,7 +51863,7 @@
       <c r="AJ17" s="24"/>
       <c r="AK17" s="30"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -51700,7 +51952,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -51789,7 +52041,7 @@
         <v>-6.896973</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -51884,7 +52136,7 @@
         <v>-6.4425340000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -51985,7 +52237,7 @@
         <v>-5.1846310000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -52074,7 +52326,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -52157,7 +52409,7 @@
       <c r="AJ23" s="24"/>
       <c r="AK23" s="30"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -52252,7 +52504,7 @@
       <c r="AJ24" s="24"/>
       <c r="AK24" s="30"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -52347,7 +52599,7 @@
         <v>-5.359178</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -52436,7 +52688,7 @@
         <v>-5.1096050000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -52531,7 +52783,7 @@
         <v>-5.25</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -52632,7 +52884,7 @@
         <v>-5.5357139999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -52721,7 +52973,7 @@
         <v>-5.1176300000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -52804,7 +53056,7 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="30"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -52893,7 +53145,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="30"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -52982,7 +53234,7 @@
       <c r="AJ32" s="24"/>
       <c r="AK32" s="30"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -53065,7 +53317,7 @@
       <c r="AJ33" s="24"/>
       <c r="AK33" s="30"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -53154,7 +53406,7 @@
         <v>-3.8040880000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -53249,7 +53501,7 @@
         <v>-0.61467300000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -53326,7 +53578,7 @@
         <v>7.1970999999999993E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -53391,7 +53643,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -53430,7 +53682,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -53448,7 +53700,7 @@
       <c r="AG39" s="27"/>
       <c r="AH39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -53457,7 +53709,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -53466,18 +53718,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -53495,29 +53747,29 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9.1796875" style="1"/>
-    <col min="13" max="13" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="9.1796875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42005</v>
@@ -53580,7 +53832,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -53691,7 +53943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -53730,7 +53982,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -53801,7 +54053,7 @@
         <v>62.235619</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -53902,7 +54154,7 @@
         <v>61.132336000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -53991,7 +54243,7 @@
         <v>62.667682999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -54074,7 +54326,7 @@
         <v>62.667682999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -54163,7 +54415,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -54252,7 +54504,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -54335,7 +54587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -54424,7 +54676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -54525,7 +54777,7 @@
         <v>57.952506999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -54608,7 +54860,7 @@
         <v>59.321925999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -54691,7 +54943,7 @@
         <v>60.917011000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -54780,7 +55032,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -54875,7 +55127,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -54964,7 +55216,7 @@
         <v>67.829712000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -55053,7 +55305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -55154,7 +55406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -55243,7 +55495,7 @@
         <v>67.411811999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -55332,7 +55584,7 @@
         <v>66.390822999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -55415,7 +55667,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -55504,7 +55756,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -55593,7 +55845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -55682,7 +55934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -55783,7 +56035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -55872,7 +56124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -55949,7 +56201,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -56038,7 +56290,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -56133,7 +56385,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -56216,7 +56468,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -56305,7 +56557,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -56400,7 +56652,7 @@
         <v>67.929946999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -56459,7 +56711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -56498,7 +56750,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="45"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -56511,7 +56763,7 @@
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -56523,7 +56775,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -56532,11 +56784,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -56545,6 +56792,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A414A518-BA04-4188-836B-99F485D34E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60577C2A-CDE0-4D78-8EBC-F9F2892F1461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2020'!$A$1:$AK$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2021'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$1:$AK$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$AB$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$AE$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'2006'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'2007'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="15">'2008'!$A:$A</definedName>
@@ -95,7 +95,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 2 October 2023, 12pm</t>
+    <t>Data Last Updated: 6 November 2023, 12pm</t>
   </si>
 </sst>
 </file>
@@ -976,23 +976,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ45" sqref="AJ45"/>
+      <selection pane="bottomRight" activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="28" width="8.7109375" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="31" width="8.7109375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1004,9 @@
       <c r="T1" s="6"/>
       <c r="W1" s="6"/>
       <c r="Z1" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="6"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1034,8 +1035,11 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44927</v>
@@ -1082,8 +1086,13 @@
       </c>
       <c r="AA4" s="71"/>
       <c r="AB4" s="72"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" s="70">
+        <v>45200</v>
+      </c>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="72"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1190,8 +1199,20 @@
         <f t="shared" ref="AB5" si="13">Y5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" s="7" t="str">
+        <f>Z5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="AD5" s="7" t="str">
+        <f t="shared" ref="AD5" si="14">AA5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="AE5" s="12" t="str">
+        <f t="shared" ref="AE5" si="15">AB5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1220,8 +1241,11 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="13"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="13"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1276,8 +1300,11 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="19"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="19"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1332,8 +1359,17 @@
       <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
       <c r="AB8" s="19"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="18">
+        <v>-19.832476</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>-57.400002000000001</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>-120.338531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1406,8 +1442,17 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="19"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="18">
+        <v>-19.740976</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>-58.5</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1474,8 +1519,17 @@
       <c r="AB10" s="19">
         <v>-121.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="18">
+        <v>-19.25</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>-59.937598999999999</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1542,8 +1596,17 @@
       <c r="AB11" s="19">
         <v>-120.302299</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="18">
+        <v>-18.947126000000001</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>-58.783703000000003</v>
+      </c>
+      <c r="AE11" s="19">
+        <v>-123.324997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1616,8 +1679,11 @@
       <c r="AB12" s="19">
         <v>-121.04032100000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="19"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1684,8 +1750,11 @@
       <c r="AB13" s="19">
         <v>-121</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="19"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1746,8 +1815,11 @@
       <c r="AB14" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="19"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1808,8 +1880,17 @@
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="18">
+        <v>-21.265378999999999</v>
+      </c>
+      <c r="AD15" s="18">
+        <v>-59.038601</v>
+      </c>
+      <c r="AE15" s="19">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1876,8 +1957,17 @@
       <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
       <c r="AB16" s="19"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="18">
+        <v>-19.77</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>-58.75</v>
+      </c>
+      <c r="AE16" s="19">
+        <v>-122.415802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1944,8 +2034,17 @@
       <c r="AB17" s="19">
         <v>-119.57083900000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="18">
+        <v>-19.118483000000001</v>
+      </c>
+      <c r="AD17" s="18">
+        <v>-59.880626999999997</v>
+      </c>
+      <c r="AE17" s="19">
+        <v>-122.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -2012,8 +2111,17 @@
       <c r="AB18" s="19">
         <v>-120.85122699999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="18">
+        <v>-18.415528999999999</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>-57.975242999999999</v>
+      </c>
+      <c r="AE18" s="19">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -2086,8 +2194,17 @@
       <c r="AB19" s="19">
         <v>-121.18289900000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="18">
+        <v>-17.991667</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>-57.908355999999998</v>
+      </c>
+      <c r="AE19" s="19">
+        <v>-121.192307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -2160,8 +2277,11 @@
       <c r="AB20" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="19"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -2228,8 +2348,11 @@
       <c r="AB21" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="19"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -2296,8 +2419,17 @@
       <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
       <c r="AB22" s="19"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="18">
+        <v>-19</v>
+      </c>
+      <c r="AD22" s="18">
+        <v>-57.685386999999999</v>
+      </c>
+      <c r="AE22" s="19">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -2370,8 +2502,17 @@
       <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
       <c r="AB23" s="19"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="18">
+        <v>-18.065339999999999</v>
+      </c>
+      <c r="AD23" s="18">
+        <v>-56.830288000000003</v>
+      </c>
+      <c r="AE23" s="19">
+        <v>-120.201553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -2438,8 +2579,17 @@
       <c r="AB24" s="19">
         <v>-121</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="18">
+        <v>-17.658446999999999</v>
+      </c>
+      <c r="AD24" s="18">
+        <v>-58.100014000000002</v>
+      </c>
+      <c r="AE24" s="19">
+        <v>-121.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2506,8 +2656,17 @@
       <c r="AB25" s="19">
         <v>-121</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="18">
+        <v>-17.388860999999999</v>
+      </c>
+      <c r="AD25" s="18">
+        <v>-56.039459000000001</v>
+      </c>
+      <c r="AE25" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2580,8 +2739,17 @@
       <c r="AB26" s="19">
         <v>-119.166664</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="18">
+        <v>-17.112074</v>
+      </c>
+      <c r="AD26" s="18">
+        <v>-56.313873000000001</v>
+      </c>
+      <c r="AE26" s="19">
+        <v>-119.29051200000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -2654,8 +2822,11 @@
       <c r="AB27" s="19">
         <v>-121.32096900000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="19"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -2722,8 +2893,11 @@
       <c r="AB28" s="19">
         <v>-121</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="19"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -2784,8 +2958,17 @@
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="19"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="18">
+        <v>-17.830023000000001</v>
+      </c>
+      <c r="AD29" s="18">
+        <v>-55.462494</v>
+      </c>
+      <c r="AE29" s="19">
+        <v>-119.29051200000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -2852,8 +3035,17 @@
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
       <c r="AB30" s="19"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="18">
+        <v>-17.77047</v>
+      </c>
+      <c r="AD30" s="18">
+        <v>-55.638629999999999</v>
+      </c>
+      <c r="AE30" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -2920,8 +3112,17 @@
       <c r="AB31" s="19">
         <v>-121</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="18">
+        <v>-17.200001</v>
+      </c>
+      <c r="AD31" s="18">
+        <v>-56.350127999999998</v>
+      </c>
+      <c r="AE31" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -2988,8 +3189,17 @@
       <c r="AB32" s="19">
         <v>-119.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="18">
+        <v>-17.458978999999999</v>
+      </c>
+      <c r="AD32" s="18">
+        <v>-55</v>
+      </c>
+      <c r="AE32" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -3062,8 +3272,17 @@
       <c r="AB33" s="19">
         <v>-119.34903</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="18">
+        <v>-17.567727999999999</v>
+      </c>
+      <c r="AD33" s="18">
+        <v>-56.094929</v>
+      </c>
+      <c r="AE33" s="19">
+        <v>-118.441299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -3130,8 +3349,11 @@
       <c r="AB34" s="19">
         <v>-119.90222900000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="19"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -3180,8 +3402,11 @@
       <c r="AB35" s="19">
         <v>-120.338531</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="19"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -3242,8 +3467,17 @@
       <c r="Z36" s="18"/>
       <c r="AA36" s="18"/>
       <c r="AB36" s="19"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC36" s="18">
+        <v>-17.567727999999999</v>
+      </c>
+      <c r="AD36" s="18">
+        <v>-56.270862999999999</v>
+      </c>
+      <c r="AE36" s="19">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -3304,8 +3538,17 @@
       <c r="Z37" s="18"/>
       <c r="AA37" s="18"/>
       <c r="AB37" s="19"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="18">
+        <v>-18.953648000000001</v>
+      </c>
+      <c r="AD37" s="18">
+        <v>-56.490096999999999</v>
+      </c>
+      <c r="AE37" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3334,8 +3577,11 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="14"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="14"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -3367,8 +3613,11 @@
       <c r="Z39" s="25"/>
       <c r="AA39" s="25"/>
       <c r="AB39" s="25"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -3400,8 +3649,11 @@
       <c r="Z40" s="25"/>
       <c r="AA40" s="25"/>
       <c r="AB40" s="25"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -3431,8 +3683,11 @@
       <c r="Z41" s="25"/>
       <c r="AA41" s="25"/>
       <c r="AB41" s="25"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -3444,18 +3699,20 @@
       <c r="T43" s="69"/>
       <c r="W43" s="69"/>
       <c r="Z43" s="69"/>
+      <c r="AC43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="Q4:S4"/>
+  <mergeCells count="10">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60577C2A-CDE0-4D78-8EBC-F9F2892F1461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FBBF2-4703-4EF4-9E8E-D92EABF443A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="35" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2020'!$A$1:$AK$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2021'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$1:$AK$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$AE$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$AH$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'2006'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'2007'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="15">'2008'!$A:$A</definedName>
@@ -95,7 +95,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 6 November 2023, 12pm</t>
+    <t>Data Last Updated: 4 December 2023, 12pm</t>
   </si>
 </sst>
 </file>
@@ -976,23 +976,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE5" sqref="AE5"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="31" width="8.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="34" width="8.7265625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1005,9 @@
       <c r="W1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AC1" s="6"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" s="6"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1038,8 +1039,11 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44927</v>
@@ -1091,8 +1095,13 @@
       </c>
       <c r="AD4" s="71"/>
       <c r="AE4" s="72"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF4" s="70">
+        <v>45231</v>
+      </c>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="72"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1211,8 +1220,20 @@
         <f t="shared" ref="AE5" si="15">AB5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="7" t="str">
+        <f>AC5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="AG5" s="7" t="str">
+        <f t="shared" ref="AG5" si="16">AD5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="AH5" s="12" t="str">
+        <f t="shared" ref="AH5" si="17">AE5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1244,8 +1265,11 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="13"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1303,8 +1327,17 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="19"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="18">
+        <v>-18.583143</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>-57.908245000000001</v>
+      </c>
+      <c r="AH7" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1368,8 +1401,17 @@
       <c r="AE8" s="19">
         <v>-120.338531</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="18">
+        <v>-17.570285999999999</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>-56.537449000000002</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1451,8 +1493,17 @@
       <c r="AE9" s="19">
         <v>-123</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="18">
+        <v>-17.570285999999999</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>-56.75</v>
+      </c>
+      <c r="AH9" s="19">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1528,8 +1579,11 @@
       <c r="AE10" s="19">
         <v>-123</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1605,8 +1659,11 @@
       <c r="AE11" s="19">
         <v>-123.324997</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1682,8 +1739,17 @@
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="19"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="18">
+        <v>-17.637854000000001</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>-56.402256000000001</v>
+      </c>
+      <c r="AH12" s="19">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1753,8 +1819,17 @@
       <c r="AC13" s="18"/>
       <c r="AD13" s="18"/>
       <c r="AE13" s="19"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="18">
+        <v>-19.266079000000001</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>-57.119919000000003</v>
+      </c>
+      <c r="AH13" s="19">
+        <v>-117.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1818,8 +1893,17 @@
       <c r="AC14" s="18"/>
       <c r="AD14" s="18"/>
       <c r="AE14" s="19"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="18">
+        <v>-19.019704999999998</v>
+      </c>
+      <c r="AG14" s="18">
+        <v>-59</v>
+      </c>
+      <c r="AH14" s="19">
+        <v>-117.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1889,8 +1973,17 @@
       <c r="AE15" s="19">
         <v>-124</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="18">
+        <v>-18.200001</v>
+      </c>
+      <c r="AG15" s="18">
+        <v>-57.601157999999998</v>
+      </c>
+      <c r="AH15" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1966,8 +2059,17 @@
       <c r="AE16" s="19">
         <v>-122.415802</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="18">
+        <v>-18.316697999999999</v>
+      </c>
+      <c r="AG16" s="18">
+        <v>-57.601157999999998</v>
+      </c>
+      <c r="AH16" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -2043,8 +2145,11 @@
       <c r="AE17" s="19">
         <v>-122.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="19"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -2120,8 +2225,11 @@
       <c r="AE18" s="19">
         <v>-121</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="19"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -2203,8 +2311,11 @@
       <c r="AE19" s="19">
         <v>-121.192307</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="19"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -2280,8 +2391,17 @@
       <c r="AC20" s="18"/>
       <c r="AD20" s="18"/>
       <c r="AE20" s="19"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="18">
+        <v>-19.535913000000001</v>
+      </c>
+      <c r="AG20" s="18">
+        <v>-58.329292000000002</v>
+      </c>
+      <c r="AH20" s="19">
+        <v>-119.09839599999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -2351,8 +2471,17 @@
       <c r="AC21" s="18"/>
       <c r="AD21" s="18"/>
       <c r="AE21" s="19"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="18">
+        <v>-18.123594000000001</v>
+      </c>
+      <c r="AG21" s="18">
+        <v>-59.045650000000002</v>
+      </c>
+      <c r="AH21" s="19">
+        <v>-119.09839599999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -2428,8 +2557,17 @@
       <c r="AE22" s="19">
         <v>-121</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="18">
+        <v>-17.436411</v>
+      </c>
+      <c r="AG22" s="18">
+        <v>-57</v>
+      </c>
+      <c r="AH22" s="19">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -2511,8 +2649,17 @@
       <c r="AE23" s="19">
         <v>-120.201553</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="18">
+        <v>-17.799999</v>
+      </c>
+      <c r="AG23" s="18">
+        <v>-57</v>
+      </c>
+      <c r="AH23" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -2588,8 +2735,11 @@
       <c r="AE24" s="19">
         <v>-121.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="19"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2665,8 +2815,11 @@
       <c r="AE25" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="19"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2748,8 +2901,17 @@
       <c r="AE26" s="19">
         <v>-119.29051200000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="18">
+        <v>-17.227715</v>
+      </c>
+      <c r="AG26" s="18">
+        <v>-57</v>
+      </c>
+      <c r="AH26" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -2825,8 +2987,17 @@
       <c r="AC27" s="18"/>
       <c r="AD27" s="18"/>
       <c r="AE27" s="19"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="18">
+        <v>-17.714221999999999</v>
+      </c>
+      <c r="AG27" s="18">
+        <v>-56.513210000000001</v>
+      </c>
+      <c r="AH27" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -2896,8 +3067,17 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
       <c r="AE28" s="19"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="18">
+        <v>-17.5</v>
+      </c>
+      <c r="AG28" s="18">
+        <v>-55.935161999999998</v>
+      </c>
+      <c r="AH28" s="19">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -2967,8 +3147,17 @@
       <c r="AE29" s="19">
         <v>-119.29051200000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="18">
+        <v>-17.186899</v>
+      </c>
+      <c r="AG29" s="18">
+        <v>-55.317943999999997</v>
+      </c>
+      <c r="AH29" s="19">
+        <v>-115.388733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -3044,8 +3233,17 @@
       <c r="AE30" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="18">
+        <v>-17.334066</v>
+      </c>
+      <c r="AG30" s="18">
+        <v>-55.901096000000003</v>
+      </c>
+      <c r="AH30" s="19">
+        <v>-114.266327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -3121,8 +3319,11 @@
       <c r="AE31" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="19"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -3198,8 +3399,11 @@
       <c r="AE32" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="19"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -3281,8 +3485,17 @@
       <c r="AE33" s="19">
         <v>-118.441299</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="18">
+        <v>-17.675128999999998</v>
+      </c>
+      <c r="AG33" s="18">
+        <v>-56</v>
+      </c>
+      <c r="AH33" s="19">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -3352,8 +3565,17 @@
       <c r="AC34" s="18"/>
       <c r="AD34" s="18"/>
       <c r="AE34" s="19"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="18">
+        <v>-17.460411000000001</v>
+      </c>
+      <c r="AG34" s="18">
+        <v>-55.514789999999998</v>
+      </c>
+      <c r="AH34" s="19">
+        <v>-114.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -3405,8 +3627,17 @@
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
       <c r="AE35" s="19"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="18">
+        <v>-19.142755999999999</v>
+      </c>
+      <c r="AG35" s="18">
+        <v>-55</v>
+      </c>
+      <c r="AH35" s="19">
+        <v>-113.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -3476,8 +3707,17 @@
       <c r="AE36" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF36" s="18">
+        <v>-18.76033</v>
+      </c>
+      <c r="AG36" s="18">
+        <v>-55.070296999999997</v>
+      </c>
+      <c r="AH36" s="19">
+        <v>-113.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -3547,8 +3787,11 @@
       <c r="AE37" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="19"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3580,8 +3823,11 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="14"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="14"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -3616,8 +3862,11 @@
       <c r="AC39" s="25"/>
       <c r="AD39" s="25"/>
       <c r="AE39" s="25"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -3652,8 +3901,11 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="25"/>
       <c r="AE40" s="25"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -3686,8 +3938,11 @@
       <c r="AC41" s="25"/>
       <c r="AD41" s="25"/>
       <c r="AE41" s="25"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -3700,19 +3955,21 @@
       <c r="W43" s="69"/>
       <c r="Z43" s="69"/>
       <c r="AC43" s="69"/>
+      <c r="AF43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -3730,16 +3987,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="33" width="9.140625" style="1"/>
-    <col min="34" max="34" width="9.140625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="33" width="9.1796875" style="1"/>
+    <col min="34" max="34" width="9.1796875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -3747,12 +4004,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3761,7 +4018,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>41640</v>
@@ -3824,7 +4081,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -3935,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3974,7 +4231,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -4051,7 +4308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -4140,7 +4397,7 @@
         <v>6.8797199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -4239,7 +4496,7 @@
         <v>7.9595000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -4334,7 +4591,7 @@
         <v>11.26601</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -4417,7 +4674,7 @@
         <v>10.82766</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -4500,7 +4757,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -4595,7 +4852,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -4684,7 +4941,7 @@
         <v>8.9414499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -4773,7 +5030,7 @@
         <v>8.0665099999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -4874,7 +5131,7 @@
         <v>8.1378400000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -4969,7 +5226,7 @@
         <v>7.3314599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -5058,7 +5315,7 @@
         <v>7.3314599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -5141,7 +5398,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -5236,7 +5493,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -5323,7 +5580,7 @@
         <v>7.7393400000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -5412,7 +5669,7 @@
         <v>7.7393400000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -5513,7 +5770,7 @@
         <v>11.533899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -5602,7 +5859,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -5691,7 +5948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -5780,7 +6037,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -5869,7 +6126,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -5952,7 +6209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -6041,7 +6298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -6142,7 +6399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -6225,7 +6482,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -6302,7 +6559,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -6391,7 +6648,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -6480,7 +6737,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -6569,7 +6826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -6654,7 +6911,7 @@
         <v>22.097799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -6719,7 +6976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6758,7 +7015,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -6774,7 +7031,7 @@
       <c r="AJ39" s="27"/>
       <c r="AK39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -6789,7 +7046,7 @@
       <c r="AJ40" s="51"/>
       <c r="AK40" s="51"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -6832,16 +7089,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="23" width="9.140625" style="1"/>
-    <col min="24" max="26" width="9.140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="26" width="9.1796875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -6849,12 +7106,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6863,7 +7120,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="71">
         <v>41275</v>
@@ -6926,7 +7183,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -7037,7 +7294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
@@ -7076,7 +7333,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -7159,7 +7416,7 @@
       <c r="AJ7" s="24"/>
       <c r="AK7" s="30"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -7248,7 +7505,7 @@
         <v>-4.3499999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -7337,7 +7594,7 @@
         <v>-4.38</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -7438,7 +7695,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -7533,7 +7790,7 @@
         <v>-4.2833300000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -7620,7 +7877,7 @@
         <v>-4.4517499999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -7709,7 +7966,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -7792,7 +8049,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -7869,7 +8126,7 @@
         <v>-4.7586899999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -7952,7 +8209,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -8041,7 +8298,7 @@
         <v>-4.9000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -8130,7 +8387,7 @@
         <v>-4.6500000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -8217,7 +8474,7 @@
         <v>-4.6500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -8306,7 +8563,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -8395,7 +8652,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -8484,7 +8741,7 @@
         <v>-5.5134999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -8573,7 +8830,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -8674,7 +8931,7 @@
         <v>-5.1417200000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -8769,7 +9026,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -8858,7 +9115,7 @@
         <v>-4.5102900000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -8947,7 +9204,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -9042,7 +9299,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -9131,7 +9388,7 @@
         <v>-4.45</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -9214,7 +9471,7 @@
         <v>-4.6344700000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -9309,7 +9566,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -9398,7 +9655,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -9485,7 +9742,7 @@
         <v>-4.6344700000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -9574,7 +9831,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -9657,7 +9914,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -9746,7 +10003,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -9817,7 +10074,7 @@
         <v>-4.3639700000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -9856,7 +10113,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -9876,7 +10133,7 @@
       <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -9888,7 +10145,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -9929,14 +10186,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -9944,12 +10201,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9958,7 +10215,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40909</v>
@@ -10021,7 +10278,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -10132,7 +10389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -10171,7 +10428,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -10248,7 +10505,7 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -10337,7 +10594,7 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="37"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -10432,7 +10689,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -10521,7 +10778,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -10622,7 +10879,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -10717,7 +10974,7 @@
         <v>-1.76</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -10806,7 +11063,7 @@
         <v>-4.28</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -10889,7 +11146,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="36"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -10978,7 +11235,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="36"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -11073,7 +11330,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -11162,7 +11419,7 @@
         <v>-2.84</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -11257,7 +11514,7 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -11352,7 +11609,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -11441,7 +11698,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -11524,7 +11781,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="36"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -11619,7 +11876,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="36"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -11714,7 +11971,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -11803,7 +12060,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -11898,7 +12155,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -11993,7 +12250,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -12082,7 +12339,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -12165,7 +12422,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="36"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -12254,7 +12511,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="36"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -12343,7 +12600,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -12426,7 +12683,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="36"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -12515,7 +12772,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -12616,7 +12873,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -12705,7 +12962,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -12788,7 +13045,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="36"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -12877,7 +13134,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="36"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -12954,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -12993,7 +13250,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -13009,7 +13266,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -13021,7 +13278,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -13062,16 +13319,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="8.85546875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="24" width="9.1796875" style="1"/>
+    <col min="25" max="25" width="8.81640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -13079,12 +13336,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13093,7 +13350,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40544</v>
@@ -13156,7 +13413,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -13267,7 +13524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -13306,7 +13563,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -13401,7 +13658,7 @@
         <v>-23.11</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -13484,7 +13741,7 @@
         <v>-20.329999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -13567,7 +13824,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -13656,7 +13913,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -13745,7 +14002,7 @@
         <v>-20.170000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -13834,7 +14091,7 @@
         <v>-20.059999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -13929,7 +14186,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -14024,7 +14281,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -14107,7 +14364,7 @@
         <v>-11.69</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -14196,7 +14453,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -14291,7 +14548,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -14380,7 +14637,7 @@
         <v>-16.059999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -14469,7 +14726,7 @@
         <v>-15.22</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -14570,7 +14827,7 @@
         <v>-10.44</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -14665,7 +14922,7 @@
         <v>-10.56</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -14754,7 +15011,7 @@
         <v>-15.21</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -14837,7 +15094,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -14932,7 +15189,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -15021,7 +15278,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -15110,7 +15367,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -15211,7 +15468,7 @@
         <v>-17.329999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -15300,7 +15557,7 @@
         <v>-16.059999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -15389,7 +15646,7 @@
         <v>-16.72</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -15478,7 +15735,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -15573,7 +15830,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -15650,7 +15907,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -15739,7 +15996,7 @@
         <v>-15.25</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -15840,7 +16097,7 @@
         <v>-17.940000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -15929,7 +16186,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -16006,7 +16263,7 @@
         <v>-14.11</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -16077,7 +16334,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -16116,7 +16373,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -16135,7 +16392,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -16147,7 +16404,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -16188,14 +16445,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -16203,12 +16460,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -16217,7 +16474,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40179</v>
@@ -16280,7 +16537,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -16391,7 +16648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -16430,7 +16687,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -16525,7 +16782,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -16614,7 +16871,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -16703,7 +16960,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -16792,7 +17049,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -16881,7 +17138,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -16970,7 +17227,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -17059,7 +17316,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -17160,7 +17417,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -17249,7 +17506,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -17332,7 +17589,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -17421,7 +17678,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -17516,7 +17773,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -17605,7 +17862,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -17694,7 +17951,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -17789,7 +18046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -17878,7 +18135,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -17961,7 +18218,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -18050,7 +18307,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -18139,7 +18396,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -18228,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -18317,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -18418,7 +18675,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -18513,7 +18770,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -18602,7 +18859,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -18691,7 +18948,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -18786,7 +19043,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -18875,7 +19132,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -18958,7 +19215,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -19053,7 +19310,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -19142,7 +19399,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -19207,7 +19464,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -19246,7 +19503,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -19265,7 +19522,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -19277,7 +19534,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -19321,14 +19578,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -19336,12 +19593,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -19350,7 +19607,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>39814</v>
@@ -19413,7 +19670,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -19524,7 +19781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -19563,7 +19820,7 @@
       <c r="AJ6" s="32"/>
       <c r="AK6" s="36"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -19640,7 +19897,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -19741,7 +19998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -19836,7 +20093,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -19925,7 +20182,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -20014,7 +20271,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -20109,7 +20366,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -20198,7 +20455,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -20287,7 +20544,7 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -20388,7 +20645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -20471,7 +20728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -20560,7 +20817,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -20649,7 +20906,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -20744,7 +21001,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -20833,7 +21090,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -20922,7 +21179,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -21023,7 +21280,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -21118,7 +21375,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -21207,7 +21464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -21296,7 +21553,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -21391,7 +21648,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -21474,7 +21731,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -21563,7 +21820,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -21664,7 +21921,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -21759,7 +22016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -21842,7 +22099,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -21925,7 +22182,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -22008,7 +22265,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -22097,7 +22354,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -22186,7 +22443,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -22281,7 +22538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -22346,7 +22603,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -22385,7 +22642,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -22401,7 +22658,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -22413,7 +22670,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -22454,14 +22711,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -22469,12 +22726,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -22483,7 +22740,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>39448</v>
@@ -22546,7 +22803,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -22657,7 +22914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -22696,7 +22953,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -22773,7 +23030,7 @@
         <v>-112.71</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -22862,7 +23119,7 @@
         <v>-110.5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -22957,7 +23214,7 @@
         <v>-101.43</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -23058,7 +23315,7 @@
         <v>-93.75</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -23147,7 +23404,7 @@
         <v>-80.569999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -23230,7 +23487,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -23319,7 +23576,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -23402,7 +23659,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -23491,7 +23748,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -23586,7 +23843,7 @@
         <v>-62.44</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -23687,7 +23944,7 @@
         <v>-56.25</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -23776,7 +24033,7 @@
         <v>-63.17</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -23859,7 +24116,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -23954,7 +24211,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -24049,7 +24306,7 @@
         <v>-45.25</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -24138,7 +24395,7 @@
         <v>-42.88</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -24233,7 +24490,7 @@
         <v>-24.75</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -24334,7 +24591,7 @@
         <v>-22.75</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -24417,7 +24674,7 @@
         <v>-20.38</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -24500,7 +24757,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -24589,7 +24846,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -24684,7 +24941,7 @@
         <v>-14.25</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -24773,7 +25030,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -24868,7 +25125,7 @@
         <v>-6.75</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -24963,7 +25220,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -25052,7 +25309,7 @@
         <v>-7.56</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -25129,7 +25386,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -25224,7 +25481,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -25319,7 +25576,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -25406,7 +25663,7 @@
         <v>-12.43</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -25477,7 +25734,7 @@
         <v>-12.75</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -25516,7 +25773,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -25532,7 +25789,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -25544,7 +25801,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -25585,19 +25842,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.7265625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -25609,7 +25866,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="71">
         <v>39083</v>
@@ -25672,7 +25929,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -25783,7 +26040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
@@ -25822,7 +26079,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -25899,7 +26156,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -25988,7 +26245,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -26077,7 +26334,7 @@
         <v>-160.63999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -26166,7 +26423,7 @@
         <v>-160.75</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -26267,7 +26524,7 @@
         <v>-160.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -26356,7 +26613,7 @@
         <v>-159</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -26445,7 +26702,7 @@
         <v>-155.71</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -26528,7 +26785,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -26617,7 +26874,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -26706,7 +26963,7 @@
         <v>-154.75</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -26795,7 +27052,7 @@
         <v>-155.57</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -26896,7 +27153,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -26991,7 +27248,7 @@
         <v>-148.25</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -27080,7 +27337,7 @@
         <v>-145.07</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -27169,7 +27426,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -27264,7 +27521,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -27353,7 +27610,7 @@
         <v>-144.63</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -27442,7 +27699,7 @@
         <v>-147.56</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -27537,7 +27794,7 @@
         <v>-150.81</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -27620,7 +27877,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -27709,7 +27966,7 @@
         <v>-150.75</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -27798,7 +28055,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -27893,7 +28150,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -27982,7 +28239,7 @@
         <v>-152.41999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -28065,7 +28322,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -28166,7 +28423,7 @@
         <v>-155.11000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -28261,7 +28518,7 @@
         <v>-153.43</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -28350,7 +28607,7 @@
         <v>-149.13999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -28433,7 +28690,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -28522,7 +28779,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -28593,7 +28850,7 @@
         <v>-146.63</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="11"/>
       <c r="C38" s="4"/>
@@ -28632,7 +28889,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -28649,7 +28906,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -28670,7 +28927,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -28719,19 +28976,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="16" width="8.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -28743,7 +29000,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>38718</v>
@@ -28806,7 +29063,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -28917,7 +29174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -28956,7 +29213,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -29039,7 +29296,7 @@
         <v>-140.36000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -29122,7 +29379,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -29217,7 +29474,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -29306,7 +29563,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -29395,7 +29652,7 @@
         <v>-142.13999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -29496,7 +29753,7 @@
         <v>-142.12</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -29591,7 +29848,7 @@
         <v>-142.28</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -29680,7 +29937,7 @@
         <v>-143.33000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -29763,7 +30020,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -29852,7 +30109,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -29941,7 +30198,7 @@
         <v>-144.71</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -30024,7 +30281,7 @@
         <v>-146.21</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -30125,7 +30382,7 @@
         <v>-148.44</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -30214,7 +30471,7 @@
         <v>-146</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -30303,7 +30560,7 @@
         <v>-145.75</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -30392,7 +30649,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -30487,7 +30744,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -30576,7 +30833,7 @@
         <v>-145.21</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -30665,7 +30922,7 @@
         <v>-142.5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -30766,7 +31023,7 @@
         <v>-143.96</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -30861,7 +31118,7 @@
         <v>-145</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -30950,7 +31207,7 @@
         <v>-144.5</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -31039,7 +31296,7 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -31128,7 +31385,7 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -31211,7 +31468,7 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -31300,7 +31557,7 @@
         <v>-143.13999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -31401,7 +31658,7 @@
         <v>-139</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -31496,7 +31753,7 @@
         <v>-138</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -31579,7 +31836,7 @@
         <v>-141.44999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -31656,7 +31913,7 @@
       <c r="AJ36" s="24"/>
       <c r="AK36" s="30"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -31727,7 +31984,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -31766,7 +32023,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -31783,7 +32040,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -31804,7 +32061,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -31858,14 +32115,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -31881,7 +32138,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -31920,7 +32177,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44562</v>
@@ -31983,7 +32240,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -32127,7 +32384,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -32166,7 +32423,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -32255,7 +32512,7 @@
         <v>-43.381798000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -32326,7 +32583,7 @@
         <v>-43.381798000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -32397,7 +32654,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -32492,7 +32749,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -32575,7 +32832,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -32664,7 +32921,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -32753,7 +33010,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -32842,7 +33099,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -32925,7 +33182,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -33014,7 +33271,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -33103,7 +33360,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -33192,7 +33449,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -33281,7 +33538,7 @@
         <v>-50.074573999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -33382,7 +33639,7 @@
         <v>-50.074573999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -33471,7 +33728,7 @@
         <v>-53.5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -33554,7 +33811,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -33643,7 +33900,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -33726,7 +33983,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -33809,7 +34066,7 @@
         <v>-51.567619000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -33898,7 +34155,7 @@
         <v>-51.567619000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -33999,7 +34256,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -34094,7 +34351,7 @@
         <v>-53.712940000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -34183,7 +34440,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -34266,7 +34523,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -34361,7 +34618,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -34444,7 +34701,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -34527,7 +34784,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -34628,7 +34885,7 @@
         <v>-47.419811000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -34711,7 +34968,7 @@
         <v>-53.262946999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -34794,7 +35051,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -34865,7 +35122,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -34904,7 +35161,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -34946,7 +35203,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -34988,7 +35245,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -35028,7 +35285,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B43" s="69"/>
       <c r="E43" s="69"/>
       <c r="H43" s="69"/>
@@ -35073,14 +35330,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -35096,7 +35353,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -35135,7 +35392,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44197</v>
@@ -35198,7 +35455,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -35342,7 +35599,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -35381,7 +35638,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -35470,7 +35727,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -35553,7 +35810,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -35636,7 +35893,7 @@
         <v>8.384665</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -35719,7 +35976,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -35808,7 +36065,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -35897,7 +36154,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -35980,7 +36237,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -36081,7 +36338,7 @@
         <v>9.3874999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -36170,7 +36427,7 @@
         <v>8.5643609999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -36259,7 +36516,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -36348,7 +36605,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -36437,7 +36694,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -36520,7 +36777,7 @@
         <v>8.6627729999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -36609,7 +36866,7 @@
         <v>8.6663619999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -36710,7 +36967,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -36805,7 +37062,7 @@
         <v>5.5313569999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -36894,7 +37151,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -36983,7 +37240,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -37078,7 +37335,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -37161,7 +37418,7 @@
         <v>4.7213419999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -37250,7 +37507,7 @@
         <v>4.5996290000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -37351,7 +37608,7 @@
         <v>4.7197969999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -37446,7 +37703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -37535,7 +37792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -37624,7 +37881,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -37713,7 +37970,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -37796,7 +38053,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -37873,7 +38130,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -37962,7 +38219,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -38045,7 +38302,7 @@
         <v>5.5195020000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -38104,7 +38361,7 @@
         <v>5.5195020000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -38143,7 +38400,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -38185,7 +38442,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -38227,7 +38484,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -38267,7 +38524,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B43" s="69"/>
     </row>
   </sheetData>
@@ -38301,14 +38558,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -38324,7 +38581,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -38363,7 +38620,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43831</v>
@@ -38426,7 +38683,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -38570,7 +38827,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -38609,7 +38866,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -38686,7 +38943,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -38781,7 +39038,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -38882,7 +39139,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -38971,7 +39228,7 @@
         <v>-4.889996</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -39054,7 +39311,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -39149,7 +39406,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -39238,7 +39495,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -39321,7 +39578,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -39416,7 +39673,7 @@
         <v>-4.8000189999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -39499,7 +39756,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -39588,7 +39845,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -39671,7 +39928,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -39760,7 +40017,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -39855,7 +40112,7 @@
         <v>-5.1249549999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -39938,7 +40195,7 @@
         <v>-5.4800570000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -40033,7 +40290,7 @@
         <v>-5.9385909999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -40134,7 +40391,7 @@
         <v>-6.2798730000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -40223,7 +40480,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -40306,7 +40563,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -40401,7 +40658,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -40496,7 +40753,7 @@
         <v>-5.3012699999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -40585,7 +40842,7 @@
         <v>-4.7213529999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -40680,7 +40937,7 @@
         <v>-4.9633099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -40781,7 +41038,7 @@
         <v>-4.9633099999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -40858,7 +41115,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -40941,7 +41198,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -41030,7 +41287,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -41119,7 +41376,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -41208,7 +41465,7 @@
         <v>-4.9318270000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -41303,7 +41560,7 @@
         <v>-4.7359830000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -41362,7 +41619,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -41401,7 +41658,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -41443,7 +41700,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -41485,7 +41742,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -41556,25 +41813,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43466</v>
@@ -41637,7 +41894,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -41748,7 +42005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -41787,7 +42044,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -41870,7 +42127,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -41959,7 +42216,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -42048,7 +42305,7 @@
         <v>-30.137229999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -42149,7 +42406,7 @@
         <v>-30.631321</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -42232,7 +42489,7 @@
         <v>-31.000039999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -42309,7 +42566,7 @@
         <v>-31.632811</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -42398,7 +42655,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -42493,7 +42750,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -42576,7 +42833,7 @@
         <v>-30.5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -42665,7 +42922,7 @@
         <v>-28.511520000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -42764,7 +43021,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -42853,7 +43110,7 @@
         <v>-29.088421</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -42942,7 +43199,7 @@
         <v>-29.312460000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -43031,7 +43288,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -43126,7 +43383,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -43215,7 +43472,7 @@
         <v>-29.492598999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -43304,7 +43561,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -43405,7 +43662,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -43494,7 +43751,7 @@
         <v>-29.075990999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -43577,7 +43834,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -43666,7 +43923,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -43755,7 +44012,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -43844,7 +44101,7 @@
         <v>-25.83567</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -43933,7 +44190,7 @@
         <v>-26.786159999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -44028,7 +44285,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -44111,7 +44368,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -44194,7 +44451,7 @@
         <v>-30.107869999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -44277,7 +44534,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -44366,7 +44623,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -44455,7 +44712,7 @@
         <v>-31.736319999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -44526,7 +44783,7 @@
         <v>-29.924980000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -44565,7 +44822,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -44574,7 +44831,7 @@
       </c>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -44583,7 +44840,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -44621,14 +44878,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -44644,7 +44901,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -44683,7 +44940,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43101</v>
@@ -44746,7 +45003,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -44857,7 +45114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -44896,7 +45153,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -44973,7 +45230,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -45062,7 +45319,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -45151,7 +45408,7 @@
         <v>-64.665367000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -45240,7 +45497,7 @@
         <v>-65.172150000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -45341,7 +45598,7 @@
         <v>-67.064507000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -45430,7 +45687,7 @@
         <v>-68.145988000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -45513,7 +45770,7 @@
         <v>-67.625</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -45602,7 +45859,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -45691,7 +45948,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -45780,7 +46037,7 @@
         <v>-66.682861000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -45869,7 +46126,7 @@
         <v>-67.892212000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -45970,7 +46227,7 @@
         <v>-66.225066999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -46065,7 +46322,7 @@
         <v>-67.367171999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -46154,7 +46411,7 @@
         <v>-67.634086999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -46237,7 +46494,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -46326,7 +46583,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -46415,7 +46672,7 @@
         <v>-66.099997999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -46504,7 +46761,7 @@
         <v>-65.037079000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -46605,7 +46862,7 @@
         <v>-64.347412000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -46700,7 +46957,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -46789,7 +47046,7 @@
         <v>-64.5</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -46872,7 +47129,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -46967,7 +47224,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -47056,7 +47313,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -47139,7 +47396,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -47234,7 +47491,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -47323,7 +47580,7 @@
         <v>-63.488010000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -47406,7 +47663,7 @@
         <v>-65.467690000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -47483,7 +47740,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -47566,7 +47823,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -47643,7 +47900,7 @@
         <v>-67.365836999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -47682,7 +47939,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -47724,7 +47981,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -47766,7 +48023,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -47837,25 +48094,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42736</v>
@@ -47918,7 +48175,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -48029,7 +48286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -48068,7 +48325,7 @@
       <c r="AJ6" s="18"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -48145,7 +48402,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -48228,7 +48485,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -48323,7 +48580,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -48412,7 +48669,7 @@
         <v>-31.941050000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -48501,7 +48758,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -48602,7 +48859,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -48697,7 +48954,7 @@
         <v>-32.770000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -48786,7 +49043,7 @@
         <v>-32.5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -48869,7 +49126,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -48958,7 +49215,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -49047,7 +49304,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -49136,7 +49393,7 @@
         <v>-34.5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -49237,7 +49494,7 @@
         <v>-35.609791000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -49326,7 +49583,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -49415,7 +49672,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -49504,7 +49761,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -49593,7 +49850,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -49676,7 +49933,7 @@
         <v>-37.919781</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -49765,7 +50022,7 @@
         <v>-37.337448000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -49866,7 +50123,7 @@
         <v>-37.365318000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -49961,7 +50218,7 @@
         <v>-36.362941999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -50050,7 +50307,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -50139,7 +50396,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -50234,7 +50491,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -50317,7 +50574,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -50394,7 +50651,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -50495,7 +50752,7 @@
         <v>-37.932048999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -50584,7 +50841,7 @@
         <v>-38.476661999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -50661,7 +50918,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -50738,7 +50995,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -50815,7 +51072,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -50854,7 +51111,7 @@
       <c r="AJ38" s="49"/>
       <c r="AK38" s="50"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -50863,7 +51120,7 @@
       </c>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -50872,7 +51129,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -50910,25 +51167,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42370</v>
@@ -50991,7 +51248,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -51102,7 +51359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -51141,7 +51398,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -51236,7 +51493,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -51319,7 +51576,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -51402,7 +51659,7 @@
       <c r="AJ9" s="24"/>
       <c r="AK9" s="30"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -51497,7 +51754,7 @@
       <c r="AJ10" s="24"/>
       <c r="AK10" s="30"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -51592,7 +51849,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -51675,7 +51932,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -51770,7 +52027,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -51865,7 +52122,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -51942,7 +52199,7 @@
         <v>-11.75</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -52025,7 +52282,7 @@
       <c r="AJ16" s="24"/>
       <c r="AK16" s="30"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -52120,7 +52377,7 @@
       <c r="AJ17" s="24"/>
       <c r="AK17" s="30"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -52209,7 +52466,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -52298,7 +52555,7 @@
         <v>-6.896973</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -52393,7 +52650,7 @@
         <v>-6.4425340000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -52494,7 +52751,7 @@
         <v>-5.1846310000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -52583,7 +52840,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -52666,7 +52923,7 @@
       <c r="AJ23" s="24"/>
       <c r="AK23" s="30"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -52761,7 +53018,7 @@
       <c r="AJ24" s="24"/>
       <c r="AK24" s="30"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -52856,7 +53113,7 @@
         <v>-5.359178</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -52945,7 +53202,7 @@
         <v>-5.1096050000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -53040,7 +53297,7 @@
         <v>-5.25</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -53141,7 +53398,7 @@
         <v>-5.5357139999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -53230,7 +53487,7 @@
         <v>-5.1176300000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -53313,7 +53570,7 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="30"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -53402,7 +53659,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="30"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -53491,7 +53748,7 @@
       <c r="AJ32" s="24"/>
       <c r="AK32" s="30"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -53574,7 +53831,7 @@
       <c r="AJ33" s="24"/>
       <c r="AK33" s="30"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -53663,7 +53920,7 @@
         <v>-3.8040880000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -53758,7 +54015,7 @@
         <v>-0.61467300000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -53835,7 +54092,7 @@
         <v>7.1970999999999993E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -53900,7 +54157,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -53939,7 +54196,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -53957,7 +54214,7 @@
       <c r="AG39" s="27"/>
       <c r="AH39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -53966,7 +54223,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -54004,29 +54261,29 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9.1796875" style="1"/>
+    <col min="13" max="13" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14" max="17" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="9.1796875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42005</v>
@@ -54089,7 +54346,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -54200,7 +54457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -54239,7 +54496,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -54310,7 +54567,7 @@
         <v>62.235619</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -54411,7 +54668,7 @@
         <v>61.132336000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -54500,7 +54757,7 @@
         <v>62.667682999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -54583,7 +54840,7 @@
         <v>62.667682999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -54672,7 +54929,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -54761,7 +55018,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -54844,7 +55101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -54933,7 +55190,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -55034,7 +55291,7 @@
         <v>57.952506999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -55117,7 +55374,7 @@
         <v>59.321925999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -55200,7 +55457,7 @@
         <v>60.917011000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -55289,7 +55546,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -55384,7 +55641,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -55473,7 +55730,7 @@
         <v>67.829712000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -55562,7 +55819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -55663,7 +55920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -55752,7 +56009,7 @@
         <v>67.411811999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -55841,7 +56098,7 @@
         <v>66.390822999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -55924,7 +56181,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -56013,7 +56270,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -56102,7 +56359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -56191,7 +56448,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -56292,7 +56549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -56381,7 +56638,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -56458,7 +56715,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -56547,7 +56804,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -56642,7 +56899,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -56725,7 +56982,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -56814,7 +57071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -56909,7 +57166,7 @@
         <v>67.929946999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -56968,7 +57225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -57007,7 +57264,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="45"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -57020,7 +57277,7 @@
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -57032,7 +57289,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FBBF2-4703-4EF4-9E8E-D92EABF443A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA847A1-4B68-4116-AE52-07D244A83E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22930" yWindow="-110" windowWidth="30940" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="35" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2020'!$A$1:$AK$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2021'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2022'!$A$1:$AK$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$AH$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2023'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'2006'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'2007'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="15">'2008'!$A:$A</definedName>
@@ -95,7 +95,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 4 December 2023, 12pm</t>
+    <t>Data Last Updated: 2 January 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -976,23 +976,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="34" width="8.7265625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1006,9 @@
       <c r="Z1" s="6"/>
       <c r="AC1" s="6"/>
       <c r="AF1" s="6"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="6"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1042,8 +1043,11 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44927</v>
@@ -1100,8 +1104,13 @@
       </c>
       <c r="AG4" s="71"/>
       <c r="AH4" s="72"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI4" s="70">
+        <v>45261</v>
+      </c>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="72"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1232,8 +1241,20 @@
         <f t="shared" ref="AH5" si="17">AE5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI5" s="7" t="str">
+        <f>AF5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="AJ5" s="7" t="str">
+        <f t="shared" ref="AJ5" si="18">AG5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="AK5" s="12" t="str">
+        <f t="shared" ref="AK5" si="19">AH5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1268,8 +1289,11 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="13"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="13"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1336,8 +1360,17 @@
       <c r="AH7" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI7" s="18">
+        <v>-19.37764</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>-56.721001000000001</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>-112.874786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1410,8 +1443,11 @@
       <c r="AH8" s="19">
         <v>-117</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="19"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1502,8 +1538,11 @@
       <c r="AH9" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="19"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1582,8 +1621,17 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="18"/>
       <c r="AH10" s="19"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI10" s="18">
+        <v>-20.109985000000002</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>-56.458888999999999</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1662,8 +1710,17 @@
       <c r="AF11" s="18"/>
       <c r="AG11" s="18"/>
       <c r="AH11" s="19"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI11" s="18">
+        <v>-18.365437</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>-55.500518999999997</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1748,8 +1805,17 @@
       <c r="AH12" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI12" s="18">
+        <v>-17.101102999999998</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>-54.923172000000001</v>
+      </c>
+      <c r="AK12" s="19">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1828,8 +1894,17 @@
       <c r="AH13" s="19">
         <v>-117.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI13" s="18">
+        <v>-16.725390999999998</v>
+      </c>
+      <c r="AJ13" s="18">
+        <v>-54.293419</v>
+      </c>
+      <c r="AK13" s="19">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1902,8 +1977,17 @@
       <c r="AH14" s="19">
         <v>-117.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI14" s="18">
+        <v>-16.970606</v>
+      </c>
+      <c r="AJ14" s="18">
+        <v>-54.588901999999997</v>
+      </c>
+      <c r="AK14" s="19">
+        <v>-110.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1982,8 +2066,11 @@
       <c r="AH15" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="19"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -2068,8 +2155,11 @@
       <c r="AH16" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="19"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -2148,8 +2238,17 @@
       <c r="AF17" s="18"/>
       <c r="AG17" s="18"/>
       <c r="AH17" s="19"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI17" s="18">
+        <v>-18</v>
+      </c>
+      <c r="AJ17" s="18">
+        <v>-54.024174000000002</v>
+      </c>
+      <c r="AK17" s="19">
+        <v>-110.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -2228,8 +2327,17 @@
       <c r="AF18" s="18"/>
       <c r="AG18" s="18"/>
       <c r="AH18" s="19"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI18" s="18">
+        <v>-16.596755999999999</v>
+      </c>
+      <c r="AJ18" s="18">
+        <v>-51.546677000000003</v>
+      </c>
+      <c r="AK18" s="19">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -2314,8 +2422,17 @@
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
       <c r="AH19" s="19"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI19" s="18">
+        <v>-15.44215</v>
+      </c>
+      <c r="AJ19" s="18">
+        <v>-50.433951999999998</v>
+      </c>
+      <c r="AK19" s="19">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -2400,8 +2517,17 @@
       <c r="AH20" s="19">
         <v>-119.09839599999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI20" s="18">
+        <v>-16.093793999999999</v>
+      </c>
+      <c r="AJ20" s="18">
+        <v>-51.064163000000001</v>
+      </c>
+      <c r="AK20" s="19">
+        <v>-101.608818</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -2480,8 +2606,17 @@
       <c r="AH21" s="19">
         <v>-119.09839599999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI21" s="18">
+        <v>-16.750146999999998</v>
+      </c>
+      <c r="AJ21" s="18">
+        <v>-52.033771999999999</v>
+      </c>
+      <c r="AK21" s="19">
+        <v>-103.470406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -2566,8 +2701,11 @@
       <c r="AH22" s="19">
         <v>-117</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="19"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -2658,8 +2796,11 @@
       <c r="AH23" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="19"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -2738,8 +2879,17 @@
       <c r="AF24" s="18"/>
       <c r="AG24" s="18"/>
       <c r="AH24" s="19"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI24" s="18">
+        <v>-17.666668000000001</v>
+      </c>
+      <c r="AJ24" s="18">
+        <v>-52.896675000000002</v>
+      </c>
+      <c r="AK24" s="19">
+        <v>-103.470406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2818,8 +2968,17 @@
       <c r="AF25" s="18"/>
       <c r="AG25" s="18"/>
       <c r="AH25" s="19"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI25" s="18">
+        <v>-17.683122999999998</v>
+      </c>
+      <c r="AJ25" s="18">
+        <v>-52.129294999999999</v>
+      </c>
+      <c r="AK25" s="19">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2910,8 +3069,17 @@
       <c r="AH26" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI26" s="18">
+        <v>-18.366810000000001</v>
+      </c>
+      <c r="AJ26" s="18">
+        <v>-54.809474999999999</v>
+      </c>
+      <c r="AK26" s="19">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -2996,8 +3164,17 @@
       <c r="AH27" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI27" s="18">
+        <v>-18.906161999999998</v>
+      </c>
+      <c r="AJ27" s="18">
+        <v>-54.963679999999997</v>
+      </c>
+      <c r="AK27" s="19">
+        <v>-107.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -3076,8 +3253,17 @@
       <c r="AH28" s="19">
         <v>-115</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI28" s="18">
+        <v>-19.869658999999999</v>
+      </c>
+      <c r="AJ28" s="18">
+        <v>-55.487431000000001</v>
+      </c>
+      <c r="AK28" s="19">
+        <v>-107.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -3156,8 +3342,11 @@
       <c r="AH29" s="19">
         <v>-115.388733</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="19"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -3242,8 +3431,11 @@
       <c r="AH30" s="19">
         <v>-114.266327</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="19"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -3322,8 +3514,11 @@
       <c r="AF31" s="18"/>
       <c r="AG31" s="18"/>
       <c r="AH31" s="19"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="19"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -3402,8 +3597,11 @@
       <c r="AF32" s="18"/>
       <c r="AG32" s="18"/>
       <c r="AH32" s="19"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="19"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -3494,8 +3692,17 @@
       <c r="AH33" s="19">
         <v>-114</v>
       </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI33" s="18">
+        <v>-20.026168999999999</v>
+      </c>
+      <c r="AJ33" s="18">
+        <v>-55.154677999999997</v>
+      </c>
+      <c r="AK33" s="19">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -3574,8 +3781,17 @@
       <c r="AH34" s="19">
         <v>-114.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI34" s="18">
+        <v>-18.155531</v>
+      </c>
+      <c r="AJ34" s="18">
+        <v>-54.549999</v>
+      </c>
+      <c r="AK34" s="19">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -3636,8 +3852,17 @@
       <c r="AH35" s="19">
         <v>-113.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI35" s="18">
+        <v>-19.505171000000001</v>
+      </c>
+      <c r="AJ35" s="18">
+        <v>-55.289577000000001</v>
+      </c>
+      <c r="AK35" s="19">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -3716,8 +3941,11 @@
       <c r="AH36" s="19">
         <v>-113.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="19"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -3790,8 +4018,11 @@
       <c r="AF37" s="18"/>
       <c r="AG37" s="18"/>
       <c r="AH37" s="19"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="19"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3826,8 +4057,11 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="14"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="14"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -3865,8 +4099,11 @@
       <c r="AF39" s="25"/>
       <c r="AG39" s="25"/>
       <c r="AH39" s="25"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -3904,8 +4141,11 @@
       <c r="AF40" s="25"/>
       <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -3941,8 +4181,11 @@
       <c r="AF41" s="25"/>
       <c r="AG41" s="25"/>
       <c r="AH41" s="25"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -3956,20 +4199,22 @@
       <c r="Z43" s="69"/>
       <c r="AC43" s="69"/>
       <c r="AF43" s="69"/>
+      <c r="AI43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7058,6 +7303,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -7066,12 +7317,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -10154,6 +10399,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -10162,12 +10413,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -13287,6 +13532,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -13295,12 +13546,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -16413,6 +16658,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="B4:D4"/>
@@ -16420,13 +16672,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -19546,6 +19791,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="T4:V4"/>
@@ -19554,12 +19805,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -22679,6 +22924,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -22686,13 +22938,6 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -25810,6 +26055,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -25818,12 +26069,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -32079,11 +32324,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
@@ -32092,6 +32332,11 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -48065,11 +48310,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -48077,6 +48317,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -54232,18 +54477,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -57298,6 +57543,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -57306,11 +57556,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8CC3D5-22B2-4B3C-829F-4B4806C5F83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527FC5B-E0AD-494E-B221-517C5356A224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22930" yWindow="-110" windowWidth="30940" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="36" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 5 February 2024, 12pm</t>
+    <t>Data Last Updated: 4 March 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -978,42 +978,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4183D3E5-8C12-4E43-98CB-C97F53232FE5}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35:D37"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="7" width="8.7265625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="72"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="70">
+        <v>45323</v>
+      </c>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1024,22 +1033,46 @@
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="str">
+        <f>B5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" ref="F5:G5" si="0">C5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="18">
+        <v>-17.459990999999999</v>
+      </c>
+      <c r="F7" s="18">
+        <v>-53.5</v>
+      </c>
+      <c r="G7" s="19">
+        <v>-105.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1052,8 +1085,17 @@
       <c r="D8" s="19">
         <v>-109</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="18">
+        <v>-17.548468</v>
+      </c>
+      <c r="F8" s="18">
+        <v>-54</v>
+      </c>
+      <c r="G8" s="19">
+        <v>-105.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1066,8 +1108,11 @@
       <c r="D9" s="19">
         <v>-102.361504</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1080,8 +1125,11 @@
       <c r="D10" s="19">
         <v>-102.361504</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1094,24 +1142,51 @@
       <c r="D11" s="19">
         <v>-106</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="18">
+        <v>-17.411266000000001</v>
+      </c>
+      <c r="F11" s="18">
+        <v>-54</v>
+      </c>
+      <c r="G11" s="19">
+        <v>-105.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>6</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="18">
+        <v>-17.120964000000001</v>
+      </c>
+      <c r="F12" s="18">
+        <v>-53.25</v>
+      </c>
+      <c r="G12" s="19">
+        <v>-107.39362300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>7</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="18">
+        <v>-17.888445000000001</v>
+      </c>
+      <c r="F13" s="18">
+        <v>-52.860461999999998</v>
+      </c>
+      <c r="G13" s="19">
+        <v>-106.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1124,8 +1199,17 @@
       <c r="D14" s="19">
         <v>-106</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="18">
+        <v>-17.409511999999999</v>
+      </c>
+      <c r="F14" s="18">
+        <v>-53.761017000000002</v>
+      </c>
+      <c r="G14" s="19">
+        <v>-106.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1138,8 +1222,17 @@
       <c r="D15" s="19">
         <v>-105</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="18">
+        <v>-17.613050000000001</v>
+      </c>
+      <c r="F15" s="18">
+        <v>-54.005004999999997</v>
+      </c>
+      <c r="G15" s="19">
+        <v>-106.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1152,8 +1245,11 @@
       <c r="D16" s="19">
         <v>-102.76119199999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1166,8 +1262,11 @@
       <c r="D17" s="19">
         <v>-102.777992</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1180,24 +1279,45 @@
       <c r="D18" s="19">
         <v>-102.777992</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>13</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="18">
+        <v>-17.744644000000001</v>
+      </c>
+      <c r="F19" s="18">
+        <v>-54</v>
+      </c>
+      <c r="G19" s="19">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>14</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="18">
+        <v>-18.496856999999999</v>
+      </c>
+      <c r="F20" s="18">
+        <v>-53.822746000000002</v>
+      </c>
+      <c r="G20" s="19">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1210,8 +1330,17 @@
       <c r="D21" s="19">
         <v>-102.777992</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="18">
+        <v>-17.25</v>
+      </c>
+      <c r="F21" s="18">
+        <v>-53.923350999999997</v>
+      </c>
+      <c r="G21" s="19">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -1224,8 +1353,17 @@
       <c r="D22" s="19">
         <v>-96</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="18">
+        <v>-17.25</v>
+      </c>
+      <c r="F22" s="18">
+        <v>-53.602069999999998</v>
+      </c>
+      <c r="G22" s="19">
+        <v>-107.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -1238,8 +1376,11 @@
       <c r="D23" s="19">
         <v>-100.52728999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -1252,8 +1393,11 @@
       <c r="D24" s="19">
         <v>-103.503151</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -1266,24 +1410,51 @@
       <c r="D25" s="19">
         <v>-105.023651</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="18">
+        <v>-16.662554</v>
+      </c>
+      <c r="F25" s="18">
+        <v>-53.099997999999999</v>
+      </c>
+      <c r="G25" s="19">
+        <v>-107.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>20</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="18">
+        <v>-16.497869000000001</v>
+      </c>
+      <c r="F26" s="18">
+        <v>-53.013362999999998</v>
+      </c>
+      <c r="G26" s="19">
+        <v>-107.64344800000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>21</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="18">
+        <v>-17.640180999999998</v>
+      </c>
+      <c r="F27" s="18">
+        <v>-52.713551000000002</v>
+      </c>
+      <c r="G27" s="19">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -1296,8 +1467,17 @@
       <c r="D28" s="19">
         <v>-105.65406</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="18">
+        <v>-16.596397</v>
+      </c>
+      <c r="F28" s="18">
+        <v>-53.935028000000003</v>
+      </c>
+      <c r="G28" s="19">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -1310,8 +1490,17 @@
       <c r="D29" s="19">
         <v>-105.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="18">
+        <v>-16.758559999999999</v>
+      </c>
+      <c r="F29" s="18">
+        <v>-54</v>
+      </c>
+      <c r="G29" s="19">
+        <v>-108.794121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -1324,8 +1513,11 @@
       <c r="D30" s="19">
         <v>-104.199997</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -1338,8 +1530,11 @@
       <c r="D31" s="19">
         <v>-104.199997</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -1352,24 +1547,51 @@
       <c r="D32" s="19">
         <v>-103.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="18">
+        <v>-16.799999</v>
+      </c>
+      <c r="F32" s="18">
+        <v>-54</v>
+      </c>
+      <c r="G32" s="19">
+        <v>-109.101669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>27</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="18">
+        <v>-16.180154999999999</v>
+      </c>
+      <c r="F33" s="18">
+        <v>-54.428283999999998</v>
+      </c>
+      <c r="G33" s="19">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>28</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="18">
+        <v>-18.050867</v>
+      </c>
+      <c r="F34" s="18">
+        <v>-55.328128999999997</v>
+      </c>
+      <c r="G34" s="19">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -1382,8 +1604,17 @@
       <c r="D35" s="19">
         <v>-103.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="18">
+        <v>-18.235330999999999</v>
+      </c>
+      <c r="F35" s="18">
+        <v>-54.532513000000002</v>
+      </c>
+      <c r="G35" s="19">
+        <v>-109.43523399999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -1396,8 +1627,11 @@
       <c r="D36" s="19">
         <v>-103.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -1410,14 +1644,20 @@
       <c r="D37" s="19">
         <v>-106.554779</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -1425,8 +1665,11 @@
         <v>8</v>
       </c>
       <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -1434,22 +1677,30 @@
         <v>3</v>
       </c>
       <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="25"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
+      <c r="E43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527FC5B-E0AD-494E-B221-517C5356A224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC885754-6E26-4CFA-AD51-6C26D72AD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22930" yWindow="-110" windowWidth="30940" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="36" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 4 March 2024, 12pm</t>
+    <t>Data Last Updated: 1 April 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -978,29 +978,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4183D3E5-8C12-4E43-98CB-C97F53232FE5}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1008,8 +1009,11 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
@@ -1021,8 +1025,13 @@
       </c>
       <c r="F4" s="71"/>
       <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="70">
+        <v>45352</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1045,8 +1054,20 @@
         <f t="shared" si="0"/>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="str">
+        <f>E5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" ref="I5" si="1">F5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f t="shared" ref="J5" si="2">G5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1054,8 +1075,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1071,8 +1095,17 @@
       <c r="G7" s="19">
         <v>-105.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="18">
+        <v>-18.508929999999999</v>
+      </c>
+      <c r="I7" s="18">
+        <v>-55.389088000000001</v>
+      </c>
+      <c r="J7" s="19">
+        <v>-110.381027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1094,8 +1127,11 @@
       <c r="G8" s="19">
         <v>-105.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1111,8 +1147,11 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1128,8 +1167,17 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="18">
+        <v>-19.875140999999999</v>
+      </c>
+      <c r="I10" s="18">
+        <v>-55.732478999999998</v>
+      </c>
+      <c r="J10" s="19">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1151,8 +1199,17 @@
       <c r="G11" s="19">
         <v>-105.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="18">
+        <v>-19.207550000000001</v>
+      </c>
+      <c r="I11" s="18">
+        <v>-55.665999999999997</v>
+      </c>
+      <c r="J11" s="19">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1168,8 +1225,17 @@
       <c r="G12" s="19">
         <v>-107.39362300000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="18">
+        <v>-18.200001</v>
+      </c>
+      <c r="I12" s="18">
+        <v>-56.333122000000003</v>
+      </c>
+      <c r="J12" s="19">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1185,8 +1251,15 @@
       <c r="G13" s="19">
         <v>-106.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="18">
+        <v>-18.128209999999999</v>
+      </c>
+      <c r="I13" s="18">
+        <v>-55</v>
+      </c>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1208,8 +1281,17 @@
       <c r="G14" s="19">
         <v>-106.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="18">
+        <v>-18.490475</v>
+      </c>
+      <c r="I14" s="18">
+        <v>-55.740051000000001</v>
+      </c>
+      <c r="J14" s="19">
+        <v>-110.487617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1231,8 +1313,11 @@
       <c r="G15" s="19">
         <v>-106.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1248,8 +1333,11 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1265,8 +1353,17 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="18">
+        <v>-19.637957</v>
+      </c>
+      <c r="I17" s="18">
+        <v>-55.667068</v>
+      </c>
+      <c r="J17" s="19">
+        <v>-110.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1282,8 +1379,17 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="18">
+        <v>-19.613955000000001</v>
+      </c>
+      <c r="I18" s="18">
+        <v>-55.827278</v>
+      </c>
+      <c r="J18" s="19">
+        <v>-112.356323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1299,8 +1405,17 @@
       <c r="G19" s="19">
         <v>-107</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="18">
+        <v>-19</v>
+      </c>
+      <c r="I19" s="18">
+        <v>-57.689129000000001</v>
+      </c>
+      <c r="J19" s="19">
+        <v>-112.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1316,8 +1431,17 @@
       <c r="G20" s="19">
         <v>-107</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="18">
+        <v>-19.299999</v>
+      </c>
+      <c r="I20" s="18">
+        <v>-56.977691999999998</v>
+      </c>
+      <c r="J20" s="19">
+        <v>-112.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1339,8 +1463,17 @@
       <c r="G21" s="19">
         <v>-107</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="18">
+        <v>-18.987552999999998</v>
+      </c>
+      <c r="I21" s="18">
+        <v>-56.75</v>
+      </c>
+      <c r="J21" s="19">
+        <v>-114.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -1362,8 +1495,11 @@
       <c r="G22" s="19">
         <v>-107.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -1379,8 +1515,11 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -1396,8 +1535,17 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="18">
+        <v>-19.75</v>
+      </c>
+      <c r="I24" s="18">
+        <v>-55.882838999999997</v>
+      </c>
+      <c r="J24" s="19">
+        <v>-114.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -1419,8 +1567,17 @@
       <c r="G25" s="19">
         <v>-107.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="18">
+        <v>-18.980757000000001</v>
+      </c>
+      <c r="I25" s="18">
+        <v>-55.240738</v>
+      </c>
+      <c r="J25" s="19">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -1436,8 +1593,17 @@
       <c r="G26" s="19">
         <v>-107.64344800000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="18">
+        <v>-17.996517000000001</v>
+      </c>
+      <c r="I26" s="18">
+        <v>-55.575394000000003</v>
+      </c>
+      <c r="J26" s="19">
+        <v>-113.39231100000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -1453,8 +1619,17 @@
       <c r="G27" s="19">
         <v>-107</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="18">
+        <v>-17.990107999999999</v>
+      </c>
+      <c r="I27" s="18">
+        <v>-53.783603999999997</v>
+      </c>
+      <c r="J27" s="19">
+        <v>-109.728348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -1476,8 +1651,17 @@
       <c r="G28" s="19">
         <v>-107</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="18">
+        <v>-17.614971000000001</v>
+      </c>
+      <c r="I28" s="18">
+        <v>-53.783603999999997</v>
+      </c>
+      <c r="J28" s="19">
+        <v>-109.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -1499,8 +1683,11 @@
       <c r="G29" s="19">
         <v>-108.794121</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -1516,8 +1703,11 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -1533,8 +1723,17 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="18">
+        <v>-18.571833000000002</v>
+      </c>
+      <c r="I31" s="18">
+        <v>-53.75</v>
+      </c>
+      <c r="J31" s="19">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -1556,8 +1755,17 @@
       <c r="G32" s="19">
         <v>-109.101669</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="18">
+        <v>-18.69463</v>
+      </c>
+      <c r="I32" s="18">
+        <v>-53.883457</v>
+      </c>
+      <c r="J32" s="19">
+        <v>-110.78919999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -1573,8 +1781,17 @@
       <c r="G33" s="19">
         <v>-109</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="18">
+        <v>-18.620564999999999</v>
+      </c>
+      <c r="I33" s="18">
+        <v>-54.09169</v>
+      </c>
+      <c r="J33" s="19">
+        <v>-110.78919999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -1590,8 +1807,17 @@
       <c r="G34" s="19">
         <v>-109</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="18">
+        <v>-18.440231000000001</v>
+      </c>
+      <c r="I34" s="18">
+        <v>-55</v>
+      </c>
+      <c r="J34" s="19">
+        <v>-110.78919999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -1613,8 +1839,11 @@
       <c r="G35" s="19">
         <v>-109.43523399999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -1630,8 +1859,11 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -1647,8 +1879,11 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1656,8 +1891,11 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -1668,8 +1906,11 @@
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -1680,8 +1921,11 @@
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -1690,17 +1934,22 @@
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="69"/>
+      <c r="H43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -1714,29 +1963,29 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9.1796875" style="1"/>
-    <col min="13" max="13" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" style="1"/>
-    <col min="18" max="18" width="9.1796875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42005</v>
@@ -1799,7 +2048,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1910,7 +2159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1949,7 +2198,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -2020,7 +2269,7 @@
         <v>62.235619</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -2121,7 +2370,7 @@
         <v>61.132336000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -2210,7 +2459,7 @@
         <v>62.667682999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -2293,7 +2542,7 @@
         <v>62.667682999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -2382,7 +2631,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -2471,7 +2720,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -2554,7 +2803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -2643,7 +2892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -2744,7 +2993,7 @@
         <v>57.952506999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -2827,7 +3076,7 @@
         <v>59.321925999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -2910,7 +3159,7 @@
         <v>60.917011000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -2999,7 +3248,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -3094,7 +3343,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -3183,7 +3432,7 @@
         <v>67.829712000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -3272,7 +3521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -3373,7 +3622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -3462,7 +3711,7 @@
         <v>67.411811999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -3551,7 +3800,7 @@
         <v>66.390822999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -3634,7 +3883,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -3723,7 +3972,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -3812,7 +4061,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -3901,7 +4150,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -4002,7 +4251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -4091,7 +4340,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -4168,7 +4417,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -4257,7 +4506,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -4352,7 +4601,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -4435,7 +4684,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -4524,7 +4773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -4619,7 +4868,7 @@
         <v>67.929946999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -4678,7 +4927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4717,7 +4966,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="45"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -4730,7 +4979,7 @@
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -4742,7 +4991,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -4781,16 +5030,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="33" width="9.1796875" style="1"/>
-    <col min="34" max="34" width="9.1796875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="9.140625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -4798,12 +5047,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4812,7 +5061,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>41640</v>
@@ -4875,7 +5124,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -4986,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5025,7 +5274,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -5102,7 +5351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -5191,7 +5440,7 @@
         <v>6.8797199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -5290,7 +5539,7 @@
         <v>7.9595000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -5385,7 +5634,7 @@
         <v>11.26601</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -5468,7 +5717,7 @@
         <v>10.82766</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -5551,7 +5800,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -5646,7 +5895,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -5735,7 +5984,7 @@
         <v>8.9414499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -5824,7 +6073,7 @@
         <v>8.0665099999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -5925,7 +6174,7 @@
         <v>8.1378400000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -6020,7 +6269,7 @@
         <v>7.3314599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -6109,7 +6358,7 @@
         <v>7.3314599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -6192,7 +6441,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -6287,7 +6536,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -6374,7 +6623,7 @@
         <v>7.7393400000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -6463,7 +6712,7 @@
         <v>7.7393400000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -6564,7 +6813,7 @@
         <v>11.533899999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -6653,7 +6902,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -6742,7 +6991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -6831,7 +7080,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -6920,7 +7169,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -7003,7 +7252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -7092,7 +7341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -7193,7 +7442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -7276,7 +7525,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -7353,7 +7602,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -7442,7 +7691,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -7531,7 +7780,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -7620,7 +7869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -7705,7 +7954,7 @@
         <v>22.097799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -7770,7 +8019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7809,7 +8058,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -7825,7 +8074,7 @@
       <c r="AJ39" s="27"/>
       <c r="AK39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -7840,7 +8089,7 @@
       <c r="AJ40" s="51"/>
       <c r="AK40" s="51"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -7883,16 +8132,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="26" width="9.1796875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="23" width="9.140625" style="1"/>
+    <col min="24" max="26" width="9.140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -7900,12 +8149,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7914,7 +8163,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="71">
         <v>41275</v>
@@ -7977,7 +8226,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -8088,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
@@ -8127,7 +8376,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -8210,7 +8459,7 @@
       <c r="AJ7" s="24"/>
       <c r="AK7" s="30"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -8299,7 +8548,7 @@
         <v>-4.3499999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -8388,7 +8637,7 @@
         <v>-4.38</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -8489,7 +8738,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -8584,7 +8833,7 @@
         <v>-4.2833300000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -8671,7 +8920,7 @@
         <v>-4.4517499999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -8760,7 +9009,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -8843,7 +9092,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -8920,7 +9169,7 @@
         <v>-4.7586899999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -9003,7 +9252,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -9092,7 +9341,7 @@
         <v>-4.9000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -9181,7 +9430,7 @@
         <v>-4.6500000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -9268,7 +9517,7 @@
         <v>-4.6500000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -9357,7 +9606,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -9446,7 +9695,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -9535,7 +9784,7 @@
         <v>-5.5134999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -9624,7 +9873,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -9725,7 +9974,7 @@
         <v>-5.1417200000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -9820,7 +10069,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -9909,7 +10158,7 @@
         <v>-4.5102900000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -9998,7 +10247,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -10093,7 +10342,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -10182,7 +10431,7 @@
         <v>-4.45</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -10265,7 +10514,7 @@
         <v>-4.6344700000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -10360,7 +10609,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -10449,7 +10698,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -10536,7 +10785,7 @@
         <v>-4.6344700000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -10625,7 +10874,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -10708,7 +10957,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -10797,7 +11046,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -10868,7 +11117,7 @@
         <v>-4.3639700000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -10907,7 +11156,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -10927,7 +11176,7 @@
       <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -10939,7 +11188,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -10980,14 +11229,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -10995,12 +11244,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11009,7 +11258,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40909</v>
@@ -11072,7 +11321,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -11183,7 +11432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -11222,7 +11471,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -11299,7 +11548,7 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -11388,7 +11637,7 @@
       <c r="AJ8" s="5"/>
       <c r="AK8" s="37"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -11483,7 +11732,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -11572,7 +11821,7 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -11673,7 +11922,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -11768,7 +12017,7 @@
         <v>-1.76</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -11857,7 +12106,7 @@
         <v>-4.28</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -11940,7 +12189,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="36"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -12029,7 +12278,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="36"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -12124,7 +12373,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -12213,7 +12462,7 @@
         <v>-2.84</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -12308,7 +12557,7 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -12403,7 +12652,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -12492,7 +12741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -12575,7 +12824,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="36"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -12670,7 +12919,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="36"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -12765,7 +13014,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -12854,7 +13103,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -12949,7 +13198,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -13044,7 +13293,7 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -13133,7 +13382,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -13216,7 +13465,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="36"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -13305,7 +13554,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="36"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -13394,7 +13643,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -13477,7 +13726,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="36"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -13566,7 +13815,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -13667,7 +13916,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -13756,7 +14005,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -13839,7 +14088,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="36"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -13928,7 +14177,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="36"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -14005,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -14044,7 +14293,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -14060,7 +14309,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -14072,7 +14321,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -14113,16 +14362,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="24" width="9.1796875" style="1"/>
-    <col min="25" max="25" width="8.81640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="8.85546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -14130,12 +14379,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14144,7 +14393,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40544</v>
@@ -14207,7 +14456,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -14318,7 +14567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14357,7 +14606,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -14452,7 +14701,7 @@
         <v>-23.11</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -14535,7 +14784,7 @@
         <v>-20.329999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -14618,7 +14867,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -14707,7 +14956,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -14796,7 +15045,7 @@
         <v>-20.170000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -14885,7 +15134,7 @@
         <v>-20.059999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -14980,7 +15229,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -15075,7 +15324,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -15158,7 +15407,7 @@
         <v>-11.69</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -15247,7 +15496,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -15342,7 +15591,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -15431,7 +15680,7 @@
         <v>-16.059999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -15520,7 +15769,7 @@
         <v>-15.22</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -15621,7 +15870,7 @@
         <v>-10.44</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -15716,7 +15965,7 @@
         <v>-10.56</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -15805,7 +16054,7 @@
         <v>-15.21</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -15888,7 +16137,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -15983,7 +16232,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -16072,7 +16321,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -16161,7 +16410,7 @@
         <v>-15.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -16262,7 +16511,7 @@
         <v>-17.329999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -16351,7 +16600,7 @@
         <v>-16.059999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -16440,7 +16689,7 @@
         <v>-16.72</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -16529,7 +16778,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -16624,7 +16873,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -16701,7 +16950,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -16790,7 +17039,7 @@
         <v>-15.25</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -16891,7 +17140,7 @@
         <v>-17.940000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -16980,7 +17229,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -17057,7 +17306,7 @@
         <v>-14.11</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -17128,7 +17377,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -17167,7 +17416,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -17186,7 +17435,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -17198,7 +17447,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -17239,14 +17488,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -17254,12 +17503,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -17268,7 +17517,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>40179</v>
@@ -17331,7 +17580,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -17442,7 +17691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -17481,7 +17730,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -17576,7 +17825,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -17665,7 +17914,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -17754,7 +18003,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -17843,7 +18092,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -17932,7 +18181,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -18021,7 +18270,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -18110,7 +18359,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -18211,7 +18460,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -18300,7 +18549,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -18383,7 +18632,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -18472,7 +18721,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -18567,7 +18816,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -18656,7 +18905,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -18745,7 +18994,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -18840,7 +19089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -18929,7 +19178,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -19012,7 +19261,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -19101,7 +19350,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -19190,7 +19439,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -19279,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -19368,7 +19617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -19469,7 +19718,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -19564,7 +19813,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -19653,7 +19902,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -19742,7 +19991,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -19837,7 +20086,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -19926,7 +20175,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -20009,7 +20258,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -20104,7 +20353,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -20193,7 +20442,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -20258,7 +20507,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -20297,7 +20546,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -20316,7 +20565,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -20328,7 +20577,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -20372,14 +20621,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -20387,12 +20636,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -20401,7 +20650,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>39814</v>
@@ -20464,7 +20713,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -20575,7 +20824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -20614,7 +20863,7 @@
       <c r="AJ6" s="32"/>
       <c r="AK6" s="36"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -20691,7 +20940,7 @@
         <v>19.37</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -20792,7 +21041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -20887,7 +21136,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -20976,7 +21225,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -21065,7 +21314,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -21160,7 +21409,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -21249,7 +21498,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -21338,7 +21587,7 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -21439,7 +21688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -21522,7 +21771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -21611,7 +21860,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -21700,7 +21949,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -21795,7 +22044,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -21884,7 +22133,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -21973,7 +22222,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -22074,7 +22323,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -22169,7 +22418,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -22258,7 +22507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -22347,7 +22596,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -22442,7 +22691,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -22525,7 +22774,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -22614,7 +22863,7 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -22715,7 +22964,7 @@
         <v>17.559999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -22810,7 +23059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -22893,7 +23142,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -22976,7 +23225,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -23059,7 +23308,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -23148,7 +23397,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -23237,7 +23486,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -23332,7 +23581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -23397,7 +23646,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -23436,7 +23685,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -23452,7 +23701,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -23464,7 +23713,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -23505,14 +23754,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -23520,12 +23769,12 @@
       <c r="AG1" s="75"/>
       <c r="AH1" s="75"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AF2" s="53"/>
       <c r="AG2" s="53"/>
       <c r="AH2" s="53"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -23534,7 +23783,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>39448</v>
@@ -23597,7 +23846,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -23708,7 +23957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -23747,7 +23996,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -23824,7 +24073,7 @@
         <v>-112.71</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -23913,7 +24162,7 @@
         <v>-110.5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -24008,7 +24257,7 @@
         <v>-101.43</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -24109,7 +24358,7 @@
         <v>-93.75</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -24198,7 +24447,7 @@
         <v>-80.569999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -24281,7 +24530,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -24370,7 +24619,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -24453,7 +24702,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -24542,7 +24791,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -24637,7 +24886,7 @@
         <v>-62.44</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -24738,7 +24987,7 @@
         <v>-56.25</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -24827,7 +25076,7 @@
         <v>-63.17</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -24910,7 +25159,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -25005,7 +25254,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -25100,7 +25349,7 @@
         <v>-45.25</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -25189,7 +25438,7 @@
         <v>-42.88</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -25284,7 +25533,7 @@
         <v>-24.75</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -25385,7 +25634,7 @@
         <v>-22.75</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -25468,7 +25717,7 @@
         <v>-20.38</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -25551,7 +25800,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -25640,7 +25889,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -25735,7 +25984,7 @@
         <v>-14.25</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -25824,7 +26073,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -25919,7 +26168,7 @@
         <v>-6.75</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -26014,7 +26263,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -26103,7 +26352,7 @@
         <v>-7.56</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -26180,7 +26429,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -26275,7 +26524,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -26370,7 +26619,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -26457,7 +26706,7 @@
         <v>-12.43</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -26528,7 +26777,7 @@
         <v>-12.75</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -26567,7 +26816,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -26583,7 +26832,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -26595,7 +26844,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -26636,19 +26885,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -26660,7 +26909,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="71">
         <v>39083</v>
@@ -26723,7 +26972,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -26834,7 +27083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
@@ -26873,7 +27122,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -26950,7 +27199,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -27039,7 +27288,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -27128,7 +27377,7 @@
         <v>-160.63999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -27217,7 +27466,7 @@
         <v>-160.75</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -27318,7 +27567,7 @@
         <v>-160.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -27407,7 +27656,7 @@
         <v>-159</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -27496,7 +27745,7 @@
         <v>-155.71</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -27579,7 +27828,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -27668,7 +27917,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -27757,7 +28006,7 @@
         <v>-154.75</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -27846,7 +28095,7 @@
         <v>-155.57</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -27947,7 +28196,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -28042,7 +28291,7 @@
         <v>-148.25</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -28131,7 +28380,7 @@
         <v>-145.07</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -28220,7 +28469,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -28315,7 +28564,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -28404,7 +28653,7 @@
         <v>-144.63</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -28493,7 +28742,7 @@
         <v>-147.56</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -28588,7 +28837,7 @@
         <v>-150.81</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -28671,7 +28920,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -28760,7 +29009,7 @@
         <v>-150.75</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -28849,7 +29098,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -28944,7 +29193,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -29033,7 +29282,7 @@
         <v>-152.41999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -29116,7 +29365,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -29217,7 +29466,7 @@
         <v>-155.11000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -29312,7 +29561,7 @@
         <v>-153.43</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -29401,7 +29650,7 @@
         <v>-149.13999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -29484,7 +29733,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -29573,7 +29822,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -29644,7 +29893,7 @@
         <v>-146.63</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="11"/>
       <c r="C38" s="4"/>
@@ -29683,7 +29932,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -29700,7 +29949,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -29721,7 +29970,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -29770,19 +30019,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="16" width="8.7265625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -29794,7 +30043,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>38718</v>
@@ -29857,7 +30106,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -29968,7 +30217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -30007,7 +30256,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -30090,7 +30339,7 @@
         <v>-140.36000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -30173,7 +30422,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -30268,7 +30517,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -30357,7 +30606,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -30446,7 +30695,7 @@
         <v>-142.13999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -30547,7 +30796,7 @@
         <v>-142.12</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -30642,7 +30891,7 @@
         <v>-142.28</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -30731,7 +30980,7 @@
         <v>-143.33000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -30814,7 +31063,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -30903,7 +31152,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -30992,7 +31241,7 @@
         <v>-144.71</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -31075,7 +31324,7 @@
         <v>-146.21</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -31176,7 +31425,7 @@
         <v>-148.44</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -31265,7 +31514,7 @@
         <v>-146</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -31354,7 +31603,7 @@
         <v>-145.75</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -31443,7 +31692,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -31538,7 +31787,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -31627,7 +31876,7 @@
         <v>-145.21</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -31716,7 +31965,7 @@
         <v>-142.5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -31817,7 +32066,7 @@
         <v>-143.96</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -31912,7 +32161,7 @@
         <v>-145</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -32001,7 +32250,7 @@
         <v>-144.5</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -32090,7 +32339,7 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -32179,7 +32428,7 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -32262,7 +32511,7 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -32351,7 +32600,7 @@
         <v>-143.13999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -32452,7 +32701,7 @@
         <v>-139</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -32547,7 +32796,7 @@
         <v>-138</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -32630,7 +32879,7 @@
         <v>-141.44999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -32707,7 +32956,7 @@
       <c r="AJ36" s="24"/>
       <c r="AK36" s="30"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -32778,7 +33027,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -32817,7 +33066,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -32834,7 +33083,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -32855,7 +33104,7 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -32909,14 +33158,14 @@
       <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -32932,7 +33181,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -32971,7 +33220,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44927</v>
@@ -33034,7 +33283,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -33178,7 +33427,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -33217,7 +33466,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -33294,7 +33543,7 @@
         <v>-112.874786</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -33371,7 +33620,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -33466,7 +33715,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -33555,7 +33804,7 @@
         <v>-112.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -33644,7 +33893,7 @@
         <v>-112.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -33739,7 +33988,7 @@
         <v>-112.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -33828,7 +34077,7 @@
         <v>-112.5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -33911,7 +34160,7 @@
         <v>-110.25</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -33994,7 +34243,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -34083,7 +34332,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -34172,7 +34421,7 @@
         <v>-110.25</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -34261,7 +34510,7 @@
         <v>-109</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -34356,7 +34605,7 @@
         <v>-106</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -34451,7 +34700,7 @@
         <v>-101.608818</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -34540,7 +34789,7 @@
         <v>-103.470406</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -34629,7 +34878,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -34724,7 +34973,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -34813,7 +35062,7 @@
         <v>-103.470406</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -34902,7 +35151,7 @@
         <v>-103</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -35003,7 +35252,7 @@
         <v>-103</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -35098,7 +35347,7 @@
         <v>-107.5</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -35187,7 +35436,7 @@
         <v>-107.5</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -35270,7 +35519,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -35359,7 +35608,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -35442,7 +35691,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -35525,7 +35774,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -35626,7 +35875,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -35715,7 +35964,7 @@
         <v>-108</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -35786,7 +36035,7 @@
         <v>-109</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -35869,7 +36118,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -35946,7 +36195,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -35985,7 +36234,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -36027,7 +36276,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -36069,7 +36318,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -36109,7 +36358,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B43" s="69"/>
       <c r="E43" s="69"/>
       <c r="H43" s="69"/>
@@ -36159,14 +36408,14 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -36182,7 +36431,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -36221,7 +36470,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44562</v>
@@ -36284,7 +36533,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -36428,7 +36677,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -36467,7 +36716,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -36556,7 +36805,7 @@
         <v>-43.381798000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -36627,7 +36876,7 @@
         <v>-43.381798000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -36698,7 +36947,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -36793,7 +37042,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -36876,7 +37125,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -36965,7 +37214,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -37054,7 +37303,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -37143,7 +37392,7 @@
         <v>-41</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -37226,7 +37475,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -37315,7 +37564,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -37404,7 +37653,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -37493,7 +37742,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -37582,7 +37831,7 @@
         <v>-50.074573999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -37683,7 +37932,7 @@
         <v>-50.074573999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -37772,7 +38021,7 @@
         <v>-53.5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -37855,7 +38104,7 @@
         <v>-58</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -37944,7 +38193,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -38027,7 +38276,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -38110,7 +38359,7 @@
         <v>-51.567619000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -38199,7 +38448,7 @@
         <v>-51.567619000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -38300,7 +38549,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -38395,7 +38644,7 @@
         <v>-53.712940000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -38484,7 +38733,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -38567,7 +38816,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -38662,7 +38911,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -38745,7 +38994,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -38828,7 +39077,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -38929,7 +39178,7 @@
         <v>-47.419811000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -39012,7 +39261,7 @@
         <v>-53.262946999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -39095,7 +39344,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -39166,7 +39415,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -39205,7 +39454,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -39247,7 +39496,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -39289,7 +39538,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -39329,7 +39578,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B43" s="69"/>
       <c r="E43" s="69"/>
       <c r="H43" s="69"/>
@@ -39374,14 +39623,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -39397,7 +39646,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -39436,7 +39685,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>44197</v>
@@ -39499,7 +39748,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -39643,7 +39892,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -39682,7 +39931,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -39771,7 +40020,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -39854,7 +40103,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -39937,7 +40186,7 @@
         <v>8.384665</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -40020,7 +40269,7 @@
       <c r="AJ10" s="18"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -40109,7 +40358,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -40198,7 +40447,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -40281,7 +40530,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -40382,7 +40631,7 @@
         <v>9.3874999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -40471,7 +40720,7 @@
         <v>8.5643609999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -40560,7 +40809,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -40649,7 +40898,7 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -40738,7 +40987,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -40821,7 +41070,7 @@
         <v>8.6627729999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -40910,7 +41159,7 @@
         <v>8.6663619999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -41011,7 +41260,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -41106,7 +41355,7 @@
         <v>5.5313569999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -41195,7 +41444,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -41284,7 +41533,7 @@
       <c r="AJ24" s="18"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -41379,7 +41628,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -41462,7 +41711,7 @@
         <v>4.7213419999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -41551,7 +41800,7 @@
         <v>4.5996290000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -41652,7 +41901,7 @@
         <v>4.7197969999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -41747,7 +41996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -41836,7 +42085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -41925,7 +42174,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -42014,7 +42263,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -42097,7 +42346,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -42174,7 +42423,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -42263,7 +42512,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -42346,7 +42595,7 @@
         <v>5.5195020000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -42405,7 +42654,7 @@
         <v>5.5195020000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -42444,7 +42693,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -42486,7 +42735,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -42528,7 +42777,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -42568,7 +42817,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="25"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B43" s="69"/>
     </row>
   </sheetData>
@@ -42602,14 +42851,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -42625,7 +42874,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -42664,7 +42913,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43831</v>
@@ -42727,7 +42976,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -42871,7 +43120,7 @@
         <v>6-mth</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -42910,7 +43159,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -42987,7 +43236,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -43082,7 +43331,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -43183,7 +43432,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -43272,7 +43521,7 @@
         <v>-4.889996</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -43355,7 +43604,7 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -43450,7 +43699,7 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -43539,7 +43788,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -43622,7 +43871,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -43717,7 +43966,7 @@
         <v>-4.8000189999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -43800,7 +44049,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -43889,7 +44138,7 @@
         <v>-4.75</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -43972,7 +44221,7 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -44061,7 +44310,7 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -44156,7 +44405,7 @@
         <v>-5.1249549999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -44239,7 +44488,7 @@
         <v>-5.4800570000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -44334,7 +44583,7 @@
         <v>-5.9385909999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -44435,7 +44684,7 @@
         <v>-6.2798730000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -44524,7 +44773,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -44607,7 +44856,7 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="19"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -44702,7 +44951,7 @@
       <c r="AJ26" s="18"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -44797,7 +45046,7 @@
         <v>-5.3012699999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -44886,7 +45135,7 @@
         <v>-4.7213529999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -44981,7 +45230,7 @@
         <v>-4.9633099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -45082,7 +45331,7 @@
         <v>-4.9633099999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -45159,7 +45408,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -45242,7 +45491,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -45331,7 +45580,7 @@
       <c r="AJ33" s="18"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -45420,7 +45669,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -45509,7 +45758,7 @@
         <v>-4.9318270000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -45604,7 +45853,7 @@
         <v>-4.7359830000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -45663,7 +45912,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -45702,7 +45951,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -45744,7 +45993,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -45786,7 +46035,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -45857,25 +46106,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43466</v>
@@ -45938,7 +46187,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -46049,7 +46298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -46088,7 +46337,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -46171,7 +46420,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -46260,7 +46509,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -46349,7 +46598,7 @@
         <v>-30.137229999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -46450,7 +46699,7 @@
         <v>-30.631321</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -46533,7 +46782,7 @@
         <v>-31.000039999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -46610,7 +46859,7 @@
         <v>-31.632811</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -46699,7 +46948,7 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -46794,7 +47043,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -46877,7 +47126,7 @@
         <v>-30.5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -46966,7 +47215,7 @@
         <v>-28.511520000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -47065,7 +47314,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -47154,7 +47403,7 @@
         <v>-29.088421</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -47243,7 +47492,7 @@
         <v>-29.312460000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -47332,7 +47581,7 @@
       <c r="AJ20" s="18"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -47427,7 +47676,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -47516,7 +47765,7 @@
         <v>-29.492598999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -47605,7 +47854,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -47706,7 +47955,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -47795,7 +48044,7 @@
         <v>-29.075990999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -47878,7 +48127,7 @@
         <v>-26.5</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -47967,7 +48216,7 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -48056,7 +48305,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -48145,7 +48394,7 @@
         <v>-25.83567</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -48234,7 +48483,7 @@
         <v>-26.786159999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -48329,7 +48578,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -48412,7 +48661,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -48495,7 +48744,7 @@
         <v>-30.107869999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -48578,7 +48827,7 @@
       <c r="AJ34" s="18"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -48667,7 +48916,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -48756,7 +49005,7 @@
         <v>-31.736319999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -48827,7 +49076,7 @@
         <v>-29.924980000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -48866,7 +49115,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -48875,7 +49124,7 @@
       </c>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -48884,7 +49133,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -48922,14 +49171,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="37" width="8.7265625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -48945,7 +49194,7 @@
       <c r="AF1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -48984,7 +49233,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>43101</v>
@@ -49047,7 +49296,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -49158,7 +49407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -49197,7 +49446,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -49274,7 +49523,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -49363,7 +49612,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -49452,7 +49701,7 @@
         <v>-64.665367000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -49541,7 +49790,7 @@
         <v>-65.172150000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -49642,7 +49891,7 @@
         <v>-67.064507000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -49731,7 +49980,7 @@
         <v>-68.145988000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -49814,7 +50063,7 @@
         <v>-67.625</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -49903,7 +50152,7 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -49992,7 +50241,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -50081,7 +50330,7 @@
         <v>-66.682861000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -50170,7 +50419,7 @@
         <v>-67.892212000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -50271,7 +50520,7 @@
         <v>-66.225066999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -50366,7 +50615,7 @@
         <v>-67.367171999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -50455,7 +50704,7 @@
         <v>-67.634086999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -50538,7 +50787,7 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -50627,7 +50876,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -50716,7 +50965,7 @@
         <v>-66.099997999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -50805,7 +51054,7 @@
         <v>-65.037079000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -50906,7 +51155,7 @@
         <v>-64.347412000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -51001,7 +51250,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -51090,7 +51339,7 @@
         <v>-64.5</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -51173,7 +51422,7 @@
       <c r="AJ28" s="18"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -51268,7 +51517,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -51357,7 +51606,7 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -51440,7 +51689,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -51535,7 +51784,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -51624,7 +51873,7 @@
         <v>-63.488010000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -51707,7 +51956,7 @@
         <v>-65.467690000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -51784,7 +52033,7 @@
       <c r="AJ35" s="18"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -51867,7 +52116,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -51944,7 +52193,7 @@
         <v>-67.365836999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -51983,7 +52232,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="14"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -52025,7 +52274,7 @@
       <c r="AJ39" s="25"/>
       <c r="AK39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -52067,7 +52316,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -52138,25 +52387,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42736</v>
@@ -52219,7 +52468,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -52330,7 +52579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -52369,7 +52618,7 @@
       <c r="AJ6" s="18"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -52446,7 +52695,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -52529,7 +52778,7 @@
       <c r="AJ8" s="18"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -52624,7 +52873,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -52713,7 +52962,7 @@
         <v>-31.941050000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -52802,7 +53051,7 @@
         <v>-34</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -52903,7 +53152,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -52998,7 +53247,7 @@
         <v>-32.770000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -53087,7 +53336,7 @@
         <v>-32.5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -53170,7 +53419,7 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -53259,7 +53508,7 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -53348,7 +53597,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -53437,7 +53686,7 @@
         <v>-34.5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -53538,7 +53787,7 @@
         <v>-35.609791000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -53627,7 +53876,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -53716,7 +53965,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -53805,7 +54054,7 @@
       <c r="AJ22" s="18"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -53894,7 +54143,7 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -53977,7 +54226,7 @@
         <v>-37.919781</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -54066,7 +54315,7 @@
         <v>-37.337448000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -54167,7 +54416,7 @@
         <v>-37.365318000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -54262,7 +54511,7 @@
         <v>-36.362941999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -54351,7 +54600,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -54440,7 +54689,7 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -54535,7 +54784,7 @@
       <c r="AJ30" s="18"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -54618,7 +54867,7 @@
       <c r="AJ31" s="18"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -54695,7 +54944,7 @@
       <c r="AJ32" s="18"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -54796,7 +55045,7 @@
         <v>-37.932048999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -54885,7 +55134,7 @@
         <v>-38.476661999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -54962,7 +55211,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -55039,7 +55288,7 @@
       <c r="AJ36" s="18"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -55116,7 +55365,7 @@
       <c r="AJ37" s="18"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -55155,7 +55404,7 @@
       <c r="AJ38" s="49"/>
       <c r="AK38" s="50"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -55164,7 +55413,7 @@
       </c>
       <c r="D39" s="25"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -55173,7 +55422,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -55211,25 +55460,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>42370</v>
@@ -55292,7 +55541,7 @@
       <c r="AJ4" s="71"/>
       <c r="AK4" s="72"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -55403,7 +55652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -55442,7 +55691,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="13"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -55537,7 +55786,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -55620,7 +55869,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -55703,7 +55952,7 @@
       <c r="AJ9" s="24"/>
       <c r="AK9" s="30"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -55798,7 +56047,7 @@
       <c r="AJ10" s="24"/>
       <c r="AK10" s="30"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -55893,7 +56142,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -55976,7 +56225,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -56071,7 +56320,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -56166,7 +56415,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -56243,7 +56492,7 @@
         <v>-11.75</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -56326,7 +56575,7 @@
       <c r="AJ16" s="24"/>
       <c r="AK16" s="30"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -56421,7 +56670,7 @@
       <c r="AJ17" s="24"/>
       <c r="AK17" s="30"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -56510,7 +56759,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -56599,7 +56848,7 @@
         <v>-6.896973</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -56694,7 +56943,7 @@
         <v>-6.4425340000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -56795,7 +57044,7 @@
         <v>-5.1846310000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -56884,7 +57133,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -56967,7 +57216,7 @@
       <c r="AJ23" s="24"/>
       <c r="AK23" s="30"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -57062,7 +57311,7 @@
       <c r="AJ24" s="24"/>
       <c r="AK24" s="30"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -57157,7 +57406,7 @@
         <v>-5.359178</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -57246,7 +57495,7 @@
         <v>-5.1096050000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -57341,7 +57590,7 @@
         <v>-5.25</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -57442,7 +57691,7 @@
         <v>-5.5357139999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -57531,7 +57780,7 @@
         <v>-5.1176300000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -57614,7 +57863,7 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="30"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -57703,7 +57952,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="30"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -57792,7 +58041,7 @@
       <c r="AJ32" s="24"/>
       <c r="AK32" s="30"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -57875,7 +58124,7 @@
       <c r="AJ33" s="24"/>
       <c r="AK33" s="30"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -57964,7 +58213,7 @@
         <v>-3.8040880000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -58059,7 +58308,7 @@
         <v>-0.61467300000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -58136,7 +58385,7 @@
         <v>7.1970999999999993E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -58201,7 +58450,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -58240,7 +58489,7 @@
       <c r="AJ38" s="33"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -58258,7 +58507,7 @@
       <c r="AG39" s="27"/>
       <c r="AH39" s="27"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -58267,7 +58516,7 @@
       </c>
       <c r="D40" s="25"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC885754-6E26-4CFA-AD51-6C26D72AD8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F638986-E81D-4C5C-A6BB-476F7C689C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 1 April 2024, 12pm</t>
+    <t>Data Last Updated: 6 May 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -978,30 +978,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4183D3E5-8C12-4E43-98CB-C97F53232FE5}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6"/>
       <c r="H1" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1012,8 +1013,11 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
@@ -1030,8 +1034,13 @@
       </c>
       <c r="I4" s="71"/>
       <c r="J4" s="72"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="70">
+        <v>45383</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1066,8 +1075,20 @@
         <f t="shared" ref="J5" si="2">G5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="7" t="str">
+        <f>H5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f t="shared" ref="L5" si="3">I5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" ref="M5" si="4">J5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1078,8 +1099,11 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1104,8 +1128,11 @@
       <c r="J7" s="19">
         <v>-110.381027</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1130,8 +1157,15 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="18">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="L8" s="18">
+        <v>-56.058182000000002</v>
+      </c>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1150,8 +1184,17 @@
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="18">
+        <v>-19.191614000000001</v>
+      </c>
+      <c r="L9" s="18">
+        <v>-56.165484999999997</v>
+      </c>
+      <c r="M9" s="19">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1176,8 +1219,17 @@
       <c r="J10" s="19">
         <v>-110</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="18">
+        <v>-18.935692</v>
+      </c>
+      <c r="L10" s="18">
+        <v>-56.114826000000001</v>
+      </c>
+      <c r="M10" s="19">
+        <v>-113.509094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1208,8 +1260,17 @@
       <c r="J11" s="19">
         <v>-110</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="18">
+        <v>-19.307607999999998</v>
+      </c>
+      <c r="L11" s="18">
+        <v>-56.614570999999998</v>
+      </c>
+      <c r="M11" s="19">
+        <v>-114.04995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1234,8 +1295,11 @@
       <c r="J12" s="19">
         <v>-110</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1258,8 +1322,11 @@
         <v>-55</v>
       </c>
       <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1290,8 +1357,17 @@
       <c r="J14" s="19">
         <v>-110.487617</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="18">
+        <v>-20.563279999999999</v>
+      </c>
+      <c r="L14" s="18">
+        <v>-57.386935999999999</v>
+      </c>
+      <c r="M14" s="19">
+        <v>-114.04995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1316,8 +1392,17 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="18">
+        <v>-19.576367999999999</v>
+      </c>
+      <c r="L15" s="18">
+        <v>-56.732211999999997</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-117.07163199999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1336,8 +1421,11 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1362,8 +1450,17 @@
       <c r="J17" s="19">
         <v>-110.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="18">
+        <v>-19.25</v>
+      </c>
+      <c r="L17" s="18">
+        <v>-57.297314</v>
+      </c>
+      <c r="M17" s="19">
+        <v>-117.18884300000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1388,8 +1485,17 @@
       <c r="J18" s="19">
         <v>-112.356323</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="18">
+        <v>-19.25</v>
+      </c>
+      <c r="L18" s="18">
+        <v>-58.404040999999999</v>
+      </c>
+      <c r="M18" s="19">
+        <v>-118.187157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1414,8 +1520,11 @@
       <c r="J19" s="19">
         <v>-112.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1440,8 +1549,11 @@
       <c r="J20" s="19">
         <v>-112.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1472,8 +1584,17 @@
       <c r="J21" s="19">
         <v>-114.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="18">
+        <v>-19.874008</v>
+      </c>
+      <c r="L21" s="18">
+        <v>-59.545707999999998</v>
+      </c>
+      <c r="M21" s="19">
+        <v>-118.187157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -1498,8 +1619,17 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="18">
+        <v>-21.454350000000002</v>
+      </c>
+      <c r="L22" s="18">
+        <v>-59.830920999999996</v>
+      </c>
+      <c r="M22" s="19">
+        <v>-118.187157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -1518,8 +1648,17 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="18">
+        <v>-19.863921999999999</v>
+      </c>
+      <c r="L23" s="18">
+        <v>-59.295216000000003</v>
+      </c>
+      <c r="M23" s="19">
+        <v>-121.375038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -1544,8 +1683,17 @@
       <c r="J24" s="19">
         <v>-114.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="18">
+        <v>-19.812891</v>
+      </c>
+      <c r="L24" s="18">
+        <v>-58.465691</v>
+      </c>
+      <c r="M24" s="19">
+        <v>-121.375038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -1576,8 +1724,17 @@
       <c r="J25" s="19">
         <v>-114</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="18">
+        <v>-19.116503000000002</v>
+      </c>
+      <c r="L25" s="18">
+        <v>-58.291530999999999</v>
+      </c>
+      <c r="M25" s="19">
+        <v>-120.198891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -1602,8 +1759,11 @@
       <c r="J26" s="19">
         <v>-113.39231100000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -1628,8 +1788,11 @@
       <c r="J27" s="19">
         <v>-109.728348</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -1660,8 +1823,17 @@
       <c r="J28" s="19">
         <v>-109.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="18">
+        <v>-18.246548000000001</v>
+      </c>
+      <c r="L28" s="18">
+        <v>-57.068184000000002</v>
+      </c>
+      <c r="M28" s="19">
+        <v>-118.343452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -1686,8 +1858,17 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="18">
+        <v>-19.810476000000001</v>
+      </c>
+      <c r="L29" s="18">
+        <v>-56.519917</v>
+      </c>
+      <c r="M29" s="19">
+        <v>-117.743195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -1706,8 +1887,17 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="18">
+        <v>-19.532883000000002</v>
+      </c>
+      <c r="L30" s="18">
+        <v>-56.968868000000001</v>
+      </c>
+      <c r="M30" s="19">
+        <v>-117.743195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -1732,8 +1922,17 @@
       <c r="J31" s="19">
         <v>-109</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="18">
+        <v>-18.314789000000001</v>
+      </c>
+      <c r="L31" s="18">
+        <v>-57.375636999999998</v>
+      </c>
+      <c r="M31" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -1764,8 +1963,17 @@
       <c r="J32" s="19">
         <v>-110.78919999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="18">
+        <v>-19.444229</v>
+      </c>
+      <c r="L32" s="18">
+        <v>-58.561306000000002</v>
+      </c>
+      <c r="M32" s="19">
+        <v>-119.901405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -1790,8 +1998,11 @@
       <c r="J33" s="19">
         <v>-110.78919999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -1816,8 +2027,11 @@
       <c r="J34" s="19">
         <v>-110.78919999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -1842,8 +2056,17 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="18">
+        <v>-20.178899999999999</v>
+      </c>
+      <c r="L35" s="18">
+        <v>-58.599997999999999</v>
+      </c>
+      <c r="M35" s="19">
+        <v>-119.901405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -1862,8 +2085,17 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="18">
+        <v>-19.633329</v>
+      </c>
+      <c r="L36" s="18">
+        <v>-60</v>
+      </c>
+      <c r="M36" s="19">
+        <v>-119.901405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -1882,8 +2114,11 @@
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="19"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1894,8 +2129,11 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -1909,8 +2147,11 @@
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -1924,8 +2165,11 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -1937,19 +2181,24 @@
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="69"/>
       <c r="H43" s="69"/>
+      <c r="K43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -5000,11 +5249,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -5013,6 +5257,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8101,12 +8350,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -8115,6 +8358,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -11197,12 +11446,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -11211,6 +11454,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -14330,12 +14579,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -14344,6 +14587,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -17456,6 +17705,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
@@ -17463,13 +17719,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -20589,12 +20838,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="T4:V4"/>
@@ -20603,6 +20846,12 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -23722,6 +23971,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -23729,13 +23985,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -26853,12 +27102,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -26867,6 +27110,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -33122,6 +33371,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
@@ -33130,11 +33384,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -36374,11 +36623,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -36386,6 +36630,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -52358,6 +52607,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -52365,11 +52619,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -58525,18 +58774,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F638986-E81D-4C5C-A6BB-476F7C689C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70691CEE-4D61-433E-B7A6-A4EF5B5877DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 6 May 2024, 12pm</t>
+    <t>Data Last Updated: 3 June 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -978,31 +978,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4183D3E5-8C12-4E43-98CB-C97F53232FE5}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="13" width="8.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6"/>
       <c r="H1" s="6"/>
       <c r="K1" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1016,8 +1017,11 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
@@ -1039,8 +1043,13 @@
       </c>
       <c r="L4" s="71"/>
       <c r="M4" s="72"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="70">
+        <v>45413</v>
+      </c>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1087,8 +1096,20 @@
         <f t="shared" ref="M5" si="4">J5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="7" t="str">
+        <f>K5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f t="shared" ref="O5" si="5">L5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f t="shared" ref="P5" si="6">M5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1102,8 +1123,11 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1131,8 +1155,11 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1164,8 +1191,17 @@
         <v>-56.058182000000002</v>
       </c>
       <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="18">
+        <v>-19.378727000000001</v>
+      </c>
+      <c r="O8" s="18">
+        <v>-60</v>
+      </c>
+      <c r="P8" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1193,8 +1229,17 @@
       <c r="M9" s="19">
         <v>-114</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="18">
+        <v>-19.274965000000002</v>
+      </c>
+      <c r="O9" s="18">
+        <v>-60</v>
+      </c>
+      <c r="P9" s="19">
+        <v>-119.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1228,8 +1273,11 @@
       <c r="M10" s="19">
         <v>-113.509094</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1269,8 +1317,11 @@
       <c r="M11" s="19">
         <v>-114.04995</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1298,8 +1349,11 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1325,8 +1379,17 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="18">
+        <v>-19.5</v>
+      </c>
+      <c r="O13" s="18">
+        <v>-59.954895</v>
+      </c>
+      <c r="P13" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1366,8 +1429,17 @@
       <c r="M14" s="19">
         <v>-114.04995</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="18">
+        <v>-18.524916000000001</v>
+      </c>
+      <c r="O14" s="18">
+        <v>-59.954895</v>
+      </c>
+      <c r="P14" s="19">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1401,8 +1473,17 @@
       <c r="M15" s="19">
         <v>-117.07163199999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="18">
+        <v>-18.5</v>
+      </c>
+      <c r="O15" s="18">
+        <v>-57.849997999999999</v>
+      </c>
+      <c r="P15" s="19">
+        <v>-117.589653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1424,8 +1505,17 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="18">
+        <v>-18.893991</v>
+      </c>
+      <c r="O16" s="18">
+        <v>-58.072223999999999</v>
+      </c>
+      <c r="P16" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1459,8 +1549,11 @@
       <c r="M17" s="19">
         <v>-117.18884300000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1494,8 +1587,11 @@
       <c r="M18" s="19">
         <v>-118.187157</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1523,8 +1619,17 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="18">
+        <v>-20.857562999999999</v>
+      </c>
+      <c r="O19" s="18">
+        <v>-58.329891000000003</v>
+      </c>
+      <c r="P19" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1552,8 +1657,17 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="18">
+        <v>-20.360655000000001</v>
+      </c>
+      <c r="O20" s="18">
+        <v>-58.364235000000001</v>
+      </c>
+      <c r="P20" s="19">
+        <v>-119.646111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1593,8 +1707,17 @@
       <c r="M21" s="19">
         <v>-118.187157</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="18">
+        <v>-20.448891</v>
+      </c>
+      <c r="O21" s="18">
+        <v>-60.017223000000001</v>
+      </c>
+      <c r="P21" s="19">
+        <v>-120.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -1628,8 +1751,17 @@
       <c r="M22" s="19">
         <v>-118.187157</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="18">
+        <v>-19.954889000000001</v>
+      </c>
+      <c r="O22" s="18">
+        <v>-58.849997999999999</v>
+      </c>
+      <c r="P22" s="19">
+        <v>-118.050003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -1657,8 +1789,17 @@
       <c r="M23" s="19">
         <v>-121.375038</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="18">
+        <v>-19.682811999999998</v>
+      </c>
+      <c r="O23" s="18">
+        <v>-58.908833000000001</v>
+      </c>
+      <c r="P23" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -1692,8 +1833,11 @@
       <c r="M24" s="19">
         <v>-121.375038</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -1733,8 +1877,11 @@
       <c r="M25" s="19">
         <v>-120.198891</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -1762,8 +1909,17 @@
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="18">
+        <v>-20.118980000000001</v>
+      </c>
+      <c r="O26" s="18">
+        <v>-58.587054999999999</v>
+      </c>
+      <c r="P26" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -1791,8 +1947,17 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="18">
+        <v>-19.407523999999999</v>
+      </c>
+      <c r="O27" s="18">
+        <v>-59.418109999999999</v>
+      </c>
+      <c r="P27" s="19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -1832,8 +1997,11 @@
       <c r="M28" s="19">
         <v>-118.343452</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -1867,8 +2035,17 @@
       <c r="M29" s="19">
         <v>-117.743195</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="18">
+        <v>-19.377683999999999</v>
+      </c>
+      <c r="O29" s="18">
+        <v>-58.370342000000001</v>
+      </c>
+      <c r="P29" s="19">
+        <v>-118.801224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -1896,8 +2073,17 @@
       <c r="M30" s="19">
         <v>-117.743195</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="18">
+        <v>-19.666668000000001</v>
+      </c>
+      <c r="O30" s="18">
+        <v>-58.964286999999999</v>
+      </c>
+      <c r="P30" s="19">
+        <v>-118.801224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -1931,8 +2117,11 @@
       <c r="M31" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -1972,8 +2161,11 @@
       <c r="M32" s="19">
         <v>-119.901405</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -2001,8 +2193,11 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -2030,8 +2225,17 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="19"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="18">
+        <v>-18.558824999999999</v>
+      </c>
+      <c r="O34" s="18">
+        <v>-59</v>
+      </c>
+      <c r="P34" s="19">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -2065,8 +2269,17 @@
       <c r="M35" s="19">
         <v>-119.901405</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="18">
+        <v>-18.261312</v>
+      </c>
+      <c r="O35" s="18">
+        <v>-58.650002000000001</v>
+      </c>
+      <c r="P35" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -2094,8 +2307,17 @@
       <c r="M36" s="19">
         <v>-119.901405</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="18">
+        <v>-19.767612</v>
+      </c>
+      <c r="O36" s="18">
+        <v>-59.718349000000003</v>
+      </c>
+      <c r="P36" s="19">
+        <v>-119.74147000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -2117,8 +2339,17 @@
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="18">
+        <v>-20.258402</v>
+      </c>
+      <c r="O37" s="18">
+        <v>-59.750155999999997</v>
+      </c>
+      <c r="P37" s="19">
+        <v>-119.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2132,8 +2363,11 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -2150,8 +2384,11 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -2168,8 +2405,11 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -2184,21 +2424,26 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="69"/>
       <c r="H43" s="69"/>
       <c r="K43" s="69"/>
+      <c r="N43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70691CEE-4D61-433E-B7A6-A4EF5B5877DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7DBBCE-6B7F-4519-AE71-85FD66957CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 3 June 2024, 12pm</t>
+    <t>Data Last Updated: 1 July 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -978,23 +978,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4183D3E5-8C12-4E43-98CB-C97F53232FE5}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="Y86" sqref="Y86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1002,9 @@
       <c r="H1" s="6"/>
       <c r="K1" s="6"/>
       <c r="N1" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1020,8 +1021,11 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
@@ -1048,8 +1052,13 @@
       </c>
       <c r="O4" s="71"/>
       <c r="P4" s="72"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="70">
+        <v>45444</v>
+      </c>
+      <c r="R4" s="71"/>
+      <c r="S4" s="72"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1108,8 +1117,20 @@
         <f t="shared" ref="P5" si="6">M5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="7" t="str">
+        <f>N5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="R5" s="7" t="str">
+        <f t="shared" ref="R5:S5" si="7">O5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1126,8 +1147,11 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1158,8 +1182,11 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1200,8 +1227,11 @@
       <c r="P8" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1238,8 +1268,17 @@
       <c r="P9" s="19">
         <v>-119.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="18">
+        <v>-19.188645999999999</v>
+      </c>
+      <c r="R9" s="18">
+        <v>-59.241295000000001</v>
+      </c>
+      <c r="S9" s="19">
+        <v>-118.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1276,8 +1315,17 @@
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="18">
+        <v>-19.487452999999999</v>
+      </c>
+      <c r="R10" s="18">
+        <v>-57.959434999999999</v>
+      </c>
+      <c r="S10" s="19">
+        <v>-118.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1320,8 +1368,17 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="18">
+        <v>-18.584244000000002</v>
+      </c>
+      <c r="R11" s="18">
+        <v>-58.551872000000003</v>
+      </c>
+      <c r="S11" s="19">
+        <v>-116.666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1352,8 +1409,17 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="18">
+        <v>-18.336186999999999</v>
+      </c>
+      <c r="R12" s="18">
+        <v>-57.867595999999999</v>
+      </c>
+      <c r="S12" s="19">
+        <v>-116.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1388,8 +1454,17 @@
       <c r="P13" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="18">
+        <v>-18.350548</v>
+      </c>
+      <c r="R13" s="18">
+        <v>-57.625</v>
+      </c>
+      <c r="S13" s="19">
+        <v>-116.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1438,8 +1513,11 @@
       <c r="P14" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1482,8 +1560,11 @@
       <c r="P15" s="19">
         <v>-117.589653</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1514,8 +1595,17 @@
       <c r="P16" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="18">
+        <v>-18.719546999999999</v>
+      </c>
+      <c r="R16" s="18">
+        <v>-58.563460999999997</v>
+      </c>
+      <c r="S16" s="19">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1552,8 +1642,17 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="18">
+        <v>-20.354102999999999</v>
+      </c>
+      <c r="R17" s="18">
+        <v>-58.75</v>
+      </c>
+      <c r="S17" s="19">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1590,8 +1689,17 @@
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="18">
+        <v>-19.5</v>
+      </c>
+      <c r="R18" s="18">
+        <v>-59.753841000000001</v>
+      </c>
+      <c r="S18" s="19">
+        <v>-119.894142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1628,8 +1736,17 @@
       <c r="P19" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="18">
+        <v>-18.649999999999999</v>
+      </c>
+      <c r="R19" s="18">
+        <v>-58.243752000000001</v>
+      </c>
+      <c r="S19" s="19">
+        <v>-117.04792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1666,8 +1783,17 @@
       <c r="P20" s="19">
         <v>-119.646111</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="18">
+        <v>-19.477055</v>
+      </c>
+      <c r="R20" s="18">
+        <v>-57.700001</v>
+      </c>
+      <c r="S20" s="19">
+        <v>-117.04792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1716,8 +1842,11 @@
       <c r="P21" s="19">
         <v>-120.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -1760,8 +1889,11 @@
       <c r="P22" s="19">
         <v>-118.050003</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -1798,8 +1930,11 @@
       <c r="P23" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -1836,8 +1971,17 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="18">
+        <v>-19.441016999999999</v>
+      </c>
+      <c r="R24" s="18">
+        <v>-57.082748000000002</v>
+      </c>
+      <c r="S24" s="19">
+        <v>-117.04792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -1880,8 +2024,17 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="19"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="18">
+        <v>-18.815118999999999</v>
+      </c>
+      <c r="R25" s="18">
+        <v>-58.267391000000003</v>
+      </c>
+      <c r="S25" s="19">
+        <v>-116.199997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -1918,8 +2071,17 @@
       <c r="P26" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="18">
+        <v>-18.096954</v>
+      </c>
+      <c r="R26" s="18">
+        <v>-56.5</v>
+      </c>
+      <c r="S26" s="19">
+        <v>-114.66027099999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -1956,8 +2118,17 @@
       <c r="P27" s="19">
         <v>-120</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="18">
+        <v>-18.096954</v>
+      </c>
+      <c r="R27" s="18">
+        <v>-56.565612999999999</v>
+      </c>
+      <c r="S27" s="19">
+        <v>-115.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -2000,8 +2171,11 @@
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="19"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="19"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -2044,8 +2218,11 @@
       <c r="P29" s="19">
         <v>-118.801224</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="19"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -2082,8 +2259,17 @@
       <c r="P30" s="19">
         <v>-118.801224</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="18">
+        <v>-18.271708</v>
+      </c>
+      <c r="R30" s="18">
+        <v>-56.737850000000002</v>
+      </c>
+      <c r="S30" s="19">
+        <v>-115.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -2120,8 +2306,17 @@
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="19"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="18">
+        <v>-19.597339999999999</v>
+      </c>
+      <c r="R31" s="18">
+        <v>-56.676051999999999</v>
+      </c>
+      <c r="S31" s="19">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -2164,8 +2359,17 @@
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="19"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="18">
+        <v>-20.467838</v>
+      </c>
+      <c r="R32" s="18">
+        <v>-58.197387999999997</v>
+      </c>
+      <c r="S32" s="19">
+        <v>-116.13473500000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -2196,8 +2400,17 @@
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
       <c r="P33" s="19"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="18">
+        <v>-19.75</v>
+      </c>
+      <c r="R33" s="18">
+        <v>-57.667641000000003</v>
+      </c>
+      <c r="S33" s="19">
+        <v>-116.13473500000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -2234,8 +2447,17 @@
       <c r="P34" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="18">
+        <v>-19.830538000000001</v>
+      </c>
+      <c r="R34" s="18">
+        <v>-58.25</v>
+      </c>
+      <c r="S34" s="19">
+        <v>-116.13473500000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -2278,8 +2500,11 @@
       <c r="P35" s="19">
         <v>-118.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="19"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -2316,8 +2541,11 @@
       <c r="P36" s="19">
         <v>-119.74147000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="19"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -2348,8 +2576,11 @@
       <c r="P37" s="19">
         <v>-119.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="19"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2366,8 +2597,11 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="14"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -2387,8 +2621,11 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -2408,8 +2645,11 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -2427,8 +2667,11 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -2436,9 +2679,11 @@
       <c r="H43" s="69"/>
       <c r="K43" s="69"/>
       <c r="N43" s="69"/>
+      <c r="Q43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -5494,6 +5739,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -5502,11 +5752,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8595,6 +8840,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -8603,12 +8854,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -11691,6 +11936,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -11699,12 +11950,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -14824,6 +15069,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -14832,12 +15083,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -17950,6 +18195,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="B4:D4"/>
@@ -17957,13 +18209,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -21083,6 +21328,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="T4:V4"/>
@@ -21091,12 +21342,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -24216,6 +24461,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -24223,13 +24475,6 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -27347,6 +27592,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -27355,12 +27606,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -33616,11 +33861,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
@@ -33629,6 +33869,11 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -36868,6 +37113,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -36875,11 +37125,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -52852,11 +53097,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -52864,6 +53104,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -59019,18 +59264,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7DBBCE-6B7F-4519-AE71-85FD66957CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE03756-78DD-47D2-82DF-C67C113BD954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2021'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2022'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2023'!$A$1:$AK$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024'!$A$1:$D$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024'!$A$1:$V$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="18">'2006'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'2007'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'2008'!$A:$A</definedName>
@@ -62,6 +62,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,7 +101,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 1 July 2024, 12pm</t>
+    <t>Data Last Updated: 5 August 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -977,24 +980,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4183D3E5-8C12-4E43-98CB-C97F53232FE5}">
-  <dimension ref="A1:S43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y86" sqref="Y86"/>
+      <selection pane="bottomRight" activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="22" width="8.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1006,9 @@
       <c r="K1" s="6"/>
       <c r="N1" s="6"/>
       <c r="Q1" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1024,8 +1028,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
@@ -1057,8 +1064,13 @@
       </c>
       <c r="R4" s="71"/>
       <c r="S4" s="72"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="70">
+        <v>45474</v>
+      </c>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1125,12 +1137,24 @@
         <f t="shared" ref="R5:S5" si="7">O5</f>
         <v>3-mth</v>
       </c>
-      <c r="S5" s="7" t="str">
+      <c r="S5" s="12" t="str">
         <f t="shared" si="7"/>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="7" t="str">
+        <f>Q5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f t="shared" ref="U5" si="8">R5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="V5" s="12" t="str">
+        <f t="shared" ref="V5" si="9">S5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1150,8 +1174,11 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1185,8 +1212,15 @@
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="18">
+        <v>-21.35</v>
+      </c>
+      <c r="U7" s="18">
+        <v>-58.5</v>
+      </c>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1230,8 +1264,15 @@
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
       <c r="S8" s="19"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="18">
+        <v>-19.750409999999999</v>
+      </c>
+      <c r="U8" s="18">
+        <v>-59.472915999999998</v>
+      </c>
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1277,8 +1318,17 @@
       <c r="S9" s="19">
         <v>-118.125</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="18">
+        <v>-19.5</v>
+      </c>
+      <c r="U9" s="18">
+        <v>-59.25</v>
+      </c>
+      <c r="V9" s="19">
+        <v>-116.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1324,8 +1374,17 @@
       <c r="S10" s="19">
         <v>-118.125</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="18">
+        <v>-19.170000000000002</v>
+      </c>
+      <c r="U10" s="18">
+        <v>-57.037635999999999</v>
+      </c>
+      <c r="V10" s="19">
+        <v>-113.875496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1377,8 +1436,17 @@
       <c r="S11" s="19">
         <v>-116.666664</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="18">
+        <v>-20.799999</v>
+      </c>
+      <c r="U11" s="18">
+        <v>-56.25</v>
+      </c>
+      <c r="V11" s="19">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1418,8 +1486,11 @@
       <c r="S12" s="19">
         <v>-116.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1463,8 +1534,11 @@
       <c r="S13" s="19">
         <v>-116.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1516,8 +1590,17 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="19"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="18">
+        <v>-20.460612999999999</v>
+      </c>
+      <c r="U14" s="18">
+        <v>-56.5</v>
+      </c>
+      <c r="V14" s="19">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1563,8 +1646,17 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="19"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="18">
+        <v>-20.208172000000001</v>
+      </c>
+      <c r="U15" s="18">
+        <v>-56.911594000000001</v>
+      </c>
+      <c r="V15" s="19">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1604,8 +1696,17 @@
       <c r="S16" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="18">
+        <v>-19.25</v>
+      </c>
+      <c r="U16" s="18">
+        <v>-58.373077000000002</v>
+      </c>
+      <c r="V16" s="19">
+        <v>-112.041664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1651,8 +1752,17 @@
       <c r="S17" s="19">
         <v>-119</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="18">
+        <v>-19.5</v>
+      </c>
+      <c r="U17" s="18">
+        <v>-57.193404999999998</v>
+      </c>
+      <c r="V17" s="19">
+        <v>-112.121674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1698,8 +1808,17 @@
       <c r="S18" s="19">
         <v>-119.894142</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="18">
+        <v>-19.848390999999999</v>
+      </c>
+      <c r="U18" s="18">
+        <v>-57.256985</v>
+      </c>
+      <c r="V18" s="19">
+        <v>-110.911766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1745,8 +1864,11 @@
       <c r="S19" s="19">
         <v>-117.04792</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1792,8 +1914,11 @@
       <c r="S20" s="19">
         <v>-117.04792</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1845,8 +1970,17 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="18">
+        <v>-21.301946999999998</v>
+      </c>
+      <c r="U21" s="18">
+        <v>-57.5</v>
+      </c>
+      <c r="V21" s="19">
+        <v>-112.791664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -1892,8 +2026,17 @@
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
       <c r="S22" s="19"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="18">
+        <v>-20.918248999999999</v>
+      </c>
+      <c r="U22" s="18">
+        <v>-58.700637999999998</v>
+      </c>
+      <c r="V22" s="19">
+        <v>-116.252647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -1933,8 +2076,17 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="19"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="18">
+        <v>-20.117483</v>
+      </c>
+      <c r="U23" s="18">
+        <v>-59.535857999999998</v>
+      </c>
+      <c r="V23" s="19">
+        <v>-115.614197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -1980,8 +2132,17 @@
       <c r="S24" s="19">
         <v>-117.04792</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="18">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="U24" s="18">
+        <v>-58.271999000000001</v>
+      </c>
+      <c r="V24" s="19">
+        <v>-114.986717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2033,8 +2194,17 @@
       <c r="S25" s="19">
         <v>-116.199997</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="18">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="U25" s="18">
+        <v>-58.408298000000002</v>
+      </c>
+      <c r="V25" s="19">
+        <v>-114.986717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2080,8 +2250,11 @@
       <c r="S26" s="19">
         <v>-114.66027099999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -2127,8 +2300,11 @@
       <c r="S27" s="19">
         <v>-115.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -2174,8 +2350,17 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="18">
+        <v>-21.249212</v>
+      </c>
+      <c r="U28" s="18">
+        <v>-58.5</v>
+      </c>
+      <c r="V28" s="19">
+        <v>-115.441086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -2221,8 +2406,17 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="18">
+        <v>-20.6</v>
+      </c>
+      <c r="U29" s="18">
+        <v>-58.366356000000003</v>
+      </c>
+      <c r="V29" s="19">
+        <v>-116.425957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -2268,8 +2462,17 @@
       <c r="S30" s="19">
         <v>-115.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="18">
+        <v>-19.766622999999999</v>
+      </c>
+      <c r="U30" s="18">
+        <v>-59.457698999999998</v>
+      </c>
+      <c r="V30" s="19">
+        <v>-116.099998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -2315,8 +2518,17 @@
       <c r="S31" s="19">
         <v>-114</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="18">
+        <v>-19.766622999999999</v>
+      </c>
+      <c r="U31" s="18">
+        <v>-58.032066</v>
+      </c>
+      <c r="V31" s="19">
+        <v>-116.099998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -2368,8 +2580,17 @@
       <c r="S32" s="19">
         <v>-116.13473500000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="18">
+        <v>-19.768561999999999</v>
+      </c>
+      <c r="U32" s="18">
+        <v>-58.386963000000002</v>
+      </c>
+      <c r="V32" s="19">
+        <v>-116.58197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -2409,8 +2630,11 @@
       <c r="S33" s="19">
         <v>-116.13473500000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -2456,8 +2680,11 @@
       <c r="S34" s="19">
         <v>-116.13473500000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -2503,8 +2730,17 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="19"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="18">
+        <v>-19.517555000000002</v>
+      </c>
+      <c r="U35" s="18">
+        <v>-58</v>
+      </c>
+      <c r="V35" s="19">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -2544,8 +2780,17 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="19"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36" s="18">
+        <v>-21.780161</v>
+      </c>
+      <c r="U36" s="18">
+        <v>-59</v>
+      </c>
+      <c r="V36" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -2579,8 +2824,17 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
       <c r="S37" s="19"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37" s="18">
+        <v>-21.1</v>
+      </c>
+      <c r="U37" s="18">
+        <v>-60.5</v>
+      </c>
+      <c r="V37" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2600,8 +2854,11 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="14"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="14"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -2624,8 +2881,11 @@
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -2648,8 +2908,11 @@
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -2670,8 +2933,11 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -2680,9 +2946,11 @@
       <c r="K43" s="69"/>
       <c r="N43" s="69"/>
       <c r="Q43" s="69"/>
+      <c r="T43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -2692,11 +2960,14 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="42" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -5739,11 +6010,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -5752,6 +6018,11 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5763,7 +6034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -8840,12 +9111,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -8854,6 +9119,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8865,7 +9136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -11936,12 +12207,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -11950,6 +12215,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -11962,7 +12233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -15069,12 +15340,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -15083,6 +15348,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -15095,7 +15366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -18195,6 +18466,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
@@ -18202,13 +18480,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -18221,7 +18492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -21328,12 +21599,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="T4:V4"/>
@@ -21342,6 +21607,12 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -21354,7 +21625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -24461,6 +24732,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
@@ -24468,13 +24746,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -24487,7 +24758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -27592,12 +27863,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -27606,6 +27871,12 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -27618,7 +27889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -30752,7 +31023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -33861,6 +34132,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
@@ -33869,11 +34145,6 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -33886,7 +34157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AK43"/>
   <sheetViews>
@@ -37113,11 +37384,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -37125,6 +37391,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -37136,7 +37407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:AK43"/>
   <sheetViews>
@@ -40356,7 +40627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:AK43"/>
   <sheetViews>
@@ -43584,7 +43855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -46839,7 +47110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -49904,7 +50175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -53097,6 +53368,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -53104,11 +53380,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -53120,7 +53391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -56193,7 +56464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
@@ -59264,18 +59535,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE03756-78DD-47D2-82DF-C67C113BD954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA7569-B3EC-421D-8232-FA2B12EB4104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2023'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2024'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -101,7 +101,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 5 August 2024, 12pm</t>
+    <t>Data Last Updated: 2 September 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -981,23 +981,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD28" sqref="AD28"/>
+      <selection pane="bottomRight" activeCell="Z77" sqref="Z77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="22" width="8.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="25" width="8.7109375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1007,9 @@
       <c r="N1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="T1" s="6"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="6"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1031,8 +1032,11 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
@@ -1069,8 +1073,13 @@
       </c>
       <c r="U4" s="71"/>
       <c r="V4" s="72"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="70">
+        <v>45505</v>
+      </c>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1153,8 +1162,20 @@
         <f t="shared" ref="V5" si="9">S5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="7" t="str">
+        <f>T5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="X5" s="7" t="str">
+        <f t="shared" ref="X5" si="10">U5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="Y5" s="12" t="str">
+        <f t="shared" ref="Y5" si="11">V5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1177,8 +1198,11 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1219,8 +1243,17 @@
         <v>-58.5</v>
       </c>
       <c r="V7" s="19"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="18">
+        <v>-21.1</v>
+      </c>
+      <c r="X7" s="18">
+        <v>-59.910648000000002</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>-118.478264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1271,8 +1304,17 @@
         <v>-59.472915999999998</v>
       </c>
       <c r="V8" s="19"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="18">
+        <v>-20.5</v>
+      </c>
+      <c r="X8" s="18">
+        <v>-60.008183000000002</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>-117.602295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1327,8 +1369,11 @@
       <c r="V9" s="19">
         <v>-116.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="19"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1383,8 +1428,11 @@
       <c r="V10" s="19">
         <v>-113.875496</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="19"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1445,8 +1493,17 @@
       <c r="V11" s="19">
         <v>-112.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="18">
+        <v>-21.395105000000001</v>
+      </c>
+      <c r="X11" s="18">
+        <v>-58.969360000000002</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>-113.666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1489,8 +1546,17 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
       <c r="V12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="18">
+        <v>-21.472049999999999</v>
+      </c>
+      <c r="X12" s="18">
+        <v>-59.673195</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>-116.96228000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1537,8 +1603,17 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
       <c r="V13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="18">
+        <v>-20.381972999999999</v>
+      </c>
+      <c r="X13" s="18">
+        <v>-59.639744</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>-115.76490800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1599,8 +1674,17 @@
       <c r="V14" s="19">
         <v>-113</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="18">
+        <v>-20.045732000000001</v>
+      </c>
+      <c r="X14" s="18">
+        <v>-59.012489000000002</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>-116.050003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1655,8 +1739,11 @@
       <c r="V15" s="19">
         <v>-113</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="19"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1705,8 +1792,11 @@
       <c r="V16" s="19">
         <v>-112.041664</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="19"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1761,8 +1851,11 @@
       <c r="V17" s="19">
         <v>-112.121674</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="19"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1817,8 +1910,17 @@
       <c r="V18" s="19">
         <v>-110.911766</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="18">
+        <v>-21.040609</v>
+      </c>
+      <c r="X18" s="18">
+        <v>-58.847622000000001</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>-115.929321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1867,8 +1969,17 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="19"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="18">
+        <v>-20.477974</v>
+      </c>
+      <c r="X19" s="18">
+        <v>-58.459350999999998</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1917,8 +2028,17 @@
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
       <c r="V20" s="19"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="18">
+        <v>-19.513888999999999</v>
+      </c>
+      <c r="X20" s="18">
+        <v>-58.859000999999999</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>-114.034409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1979,8 +2099,17 @@
       <c r="V21" s="19">
         <v>-112.791664</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="18">
+        <v>-19.771086</v>
+      </c>
+      <c r="X21" s="18">
+        <v>-58.654452999999997</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>-114.25617200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -2035,8 +2164,17 @@
       <c r="V22" s="19">
         <v>-116.252647</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="18">
+        <v>-20.203082999999999</v>
+      </c>
+      <c r="X22" s="18">
+        <v>-59.328341999999999</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>-116.823334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -2085,8 +2223,11 @@
       <c r="V23" s="19">
         <v>-115.614197</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="19"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -2141,8 +2282,11 @@
       <c r="V24" s="19">
         <v>-114.986717</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="19"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2203,8 +2347,17 @@
       <c r="V25" s="19">
         <v>-114.986717</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="18">
+        <v>-21.786729999999999</v>
+      </c>
+      <c r="X25" s="18">
+        <v>-59.830272999999998</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2253,8 +2406,17 @@
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
       <c r="V26" s="19"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="18">
+        <v>-21.341709000000002</v>
+      </c>
+      <c r="X26" s="18">
+        <v>-59.732391</v>
+      </c>
+      <c r="Y26" s="19">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -2303,8 +2465,17 @@
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
       <c r="V27" s="19"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="18">
+        <v>-21.86824</v>
+      </c>
+      <c r="X27" s="18">
+        <v>-61.557144000000001</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>-116.933685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -2359,8 +2530,17 @@
       <c r="V28" s="19">
         <v>-115.441086</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="18">
+        <v>-21.676850999999999</v>
+      </c>
+      <c r="X28" s="18">
+        <v>-60.05518</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>-116.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -2415,8 +2595,17 @@
       <c r="V29" s="19">
         <v>-116.425957</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="18">
+        <v>-21.870028000000001</v>
+      </c>
+      <c r="X29" s="18">
+        <v>-61.047854999999998</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>-116.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -2471,8 +2660,11 @@
       <c r="V30" s="19">
         <v>-116.099998</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="19"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -2527,8 +2719,11 @@
       <c r="V31" s="19">
         <v>-116.099998</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="19"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -2589,8 +2784,11 @@
       <c r="V32" s="19">
         <v>-116.58197</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="19"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -2633,8 +2831,17 @@
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
       <c r="V33" s="19"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="18">
+        <v>-22.955514999999998</v>
+      </c>
+      <c r="X33" s="18">
+        <v>-62.202595000000002</v>
+      </c>
+      <c r="Y33" s="19">
+        <v>-116.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -2683,8 +2890,17 @@
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
       <c r="V34" s="19"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="18">
+        <v>-22.225587999999998</v>
+      </c>
+      <c r="X34" s="18">
+        <v>-61.448813999999999</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>-117.397087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -2739,8 +2955,17 @@
       <c r="V35" s="19">
         <v>-117</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="18">
+        <v>-22.260603</v>
+      </c>
+      <c r="X35" s="18">
+        <v>-61.598911000000001</v>
+      </c>
+      <c r="Y35" s="19">
+        <v>-115.817162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -2789,8 +3014,17 @@
       <c r="V36" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36" s="18">
+        <v>-22.790091</v>
+      </c>
+      <c r="X36" s="18">
+        <v>-62.833331999999999</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -2833,8 +3067,11 @@
       <c r="V37" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2857,8 +3094,11 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="14"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="14"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -2884,8 +3124,11 @@
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
       <c r="V39" s="25"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -2911,8 +3154,11 @@
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -2936,8 +3182,11 @@
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -2947,9 +3196,11 @@
       <c r="N43" s="69"/>
       <c r="Q43" s="69"/>
       <c r="T43" s="69"/>
+      <c r="W43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>

--- a/data/SwapPoint.xlsx
+++ b/data/SwapPoint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FA7569-B3EC-421D-8232-FA2B12EB4104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD7B0F-EE90-4226-9E55-EEA67C122E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2021'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2022'!$A$1:$AK$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2023'!$A$1:$AK$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024'!$A$1:$V$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024'!$A$1:$AB$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="18">'2006'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="17">'2007'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'2008'!$A:$A</definedName>
@@ -54,7 +54,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2023'!$A:$A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2024'!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -101,7 +101,7 @@
     <t>ABS Benchmarks Administration Co Pte Ltd</t>
   </si>
   <si>
-    <t>Data Last Updated: 2 September 2024, 12pm</t>
+    <t>Data Last Updated: 7 October 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -981,23 +981,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z77" sqref="Z77"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="25" width="8.7109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="28" width="8.7109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1008,9 @@
       <c r="Q1" s="6"/>
       <c r="T1" s="6"/>
       <c r="W1" s="6"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1035,8 +1036,11 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="70">
         <v>45292</v>
@@ -1078,8 +1082,13 @@
       </c>
       <c r="X4" s="71"/>
       <c r="Y4" s="72"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="70">
+        <v>45536</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="72"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1174,8 +1183,20 @@
         <f t="shared" ref="Y5" si="11">V5</f>
         <v>6-mth</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="7" t="str">
+        <f>W5</f>
+        <v>1-mth</v>
+      </c>
+      <c r="AA5" s="7" t="str">
+        <f t="shared" ref="AA5" si="12">X5</f>
+        <v>3-mth</v>
+      </c>
+      <c r="AB5" s="12" t="str">
+        <f t="shared" ref="AB5" si="13">Y5</f>
+        <v>6-mth</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1201,8 +1222,11 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="13"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1252,8 +1276,11 @@
       <c r="Y7" s="19">
         <v>-118.478264</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="19"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -1313,8 +1340,17 @@
       <c r="Y8" s="19">
         <v>-117.602295</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="18">
+        <v>-23</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>-63.150002000000001</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>-118.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -1372,8 +1408,17 @@
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="19"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="18">
+        <v>-22.754438</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>-61.655819000000001</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>-116.65016199999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -1431,8 +1476,17 @@
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="19"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="18">
+        <v>-21.6</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>-61.126365999999997</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>-116.65016199999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -1502,8 +1556,17 @@
       <c r="Y11" s="19">
         <v>-113.666664</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="18">
+        <v>-20.392392999999998</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>-60.473644</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>-114.934196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -1555,8 +1618,17 @@
       <c r="Y12" s="19">
         <v>-116.96228000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="18">
+        <v>-21.276066</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>-61.377583000000001</v>
+      </c>
+      <c r="AB12" s="19">
+        <v>-114.934196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -1612,8 +1684,11 @@
       <c r="Y13" s="19">
         <v>-115.76490800000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="19"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -1683,8 +1758,11 @@
       <c r="Y14" s="19">
         <v>-116.050003</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="19"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -1742,8 +1820,17 @@
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="19"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="18">
+        <v>-22.165697000000002</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>-62.509354000000002</v>
+      </c>
+      <c r="AB15" s="19">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -1795,8 +1882,17 @@
       <c r="W16" s="18"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="19"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="18">
+        <v>-24.254830999999999</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>-63.033813000000002</v>
+      </c>
+      <c r="AB16" s="19">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -1854,8 +1950,17 @@
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="19"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="18">
+        <v>-23.657169</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>-63.733809999999998</v>
+      </c>
+      <c r="AB17" s="19">
+        <v>-117.194626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1919,8 +2024,17 @@
       <c r="Y18" s="19">
         <v>-115.929321</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="18">
+        <v>-22.100491999999999</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>-64.159706</v>
+      </c>
+      <c r="AB18" s="19">
+        <v>-116.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1978,8 +2092,17 @@
       <c r="Y19" s="19">
         <v>-117</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="18">
+        <v>-21.371109000000001</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>-63.041072999999997</v>
+      </c>
+      <c r="AB19" s="19">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -2037,8 +2160,11 @@
       <c r="Y20" s="19">
         <v>-114.034409</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="19"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -2108,8 +2234,11 @@
       <c r="Y21" s="19">
         <v>-114.25617200000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="19"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -2173,8 +2302,17 @@
       <c r="Y22" s="19">
         <v>-116.823334</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="18">
+        <v>-21.274999999999999</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>-63.041072999999997</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -2226,8 +2364,17 @@
       <c r="W23" s="18"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="19"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="18">
+        <v>-21.877839999999999</v>
+      </c>
+      <c r="AA23" s="18">
+        <v>-61.436230000000002</v>
+      </c>
+      <c r="AB23" s="19">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -2285,8 +2432,17 @@
       <c r="W24" s="18"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="19"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="18">
+        <v>-20.666712</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>-61.232868000000003</v>
+      </c>
+      <c r="AB24" s="19">
+        <v>-112.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2356,8 +2512,17 @@
       <c r="Y25" s="19">
         <v>-117</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="18">
+        <v>-20.194272999999999</v>
+      </c>
+      <c r="AA25" s="18">
+        <v>-60.124927999999997</v>
+      </c>
+      <c r="AB25" s="19">
+        <v>-111.83369399999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2415,8 +2580,17 @@
       <c r="Y26" s="19">
         <v>-117</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="18">
+        <v>-20.370007999999999</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>-60.799999</v>
+      </c>
+      <c r="AB26" s="19">
+        <v>-111.83369399999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>21</v>
       </c>
@@ -2474,8 +2648,11 @@
       <c r="Y27" s="19">
         <v>-116.933685</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="19"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -2539,8 +2716,11 @@
       <c r="Y28" s="19">
         <v>-116.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="19"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -2604,8 +2784,17 @@
       <c r="Y29" s="19">
         <v>-116.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="18">
+        <v>-20.370007999999999</v>
+      </c>
+      <c r="AA29" s="18">
+        <v>-60.779311999999997</v>
+      </c>
+      <c r="AB29" s="19">
+        <v>-111.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>24</v>
       </c>
@@ -2663,8 +2852,17 @@
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="19"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="18">
+        <v>-21</v>
+      </c>
+      <c r="AA30" s="18">
+        <v>-59.504477999999999</v>
+      </c>
+      <c r="AB30" s="19">
+        <v>-111.205933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>25</v>
       </c>
@@ -2722,8 +2920,17 @@
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
       <c r="Y31" s="19"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="18">
+        <v>-20.133300999999999</v>
+      </c>
+      <c r="AA31" s="18">
+        <v>-58.379784000000001</v>
+      </c>
+      <c r="AB31" s="19">
+        <v>-108.55555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>26</v>
       </c>
@@ -2787,8 +2994,17 @@
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="19"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="18">
+        <v>-19.233566</v>
+      </c>
+      <c r="AA32" s="18">
+        <v>-58.474327000000002</v>
+      </c>
+      <c r="AB32" s="19">
+        <v>-106.799995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>27</v>
       </c>
@@ -2840,8 +3056,17 @@
       <c r="Y33" s="19">
         <v>-116.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="18">
+        <v>-20.441889</v>
+      </c>
+      <c r="AA33" s="18">
+        <v>-59.318722000000001</v>
+      </c>
+      <c r="AB33" s="19">
+        <v>-106.799995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>28</v>
       </c>
@@ -2899,8 +3124,11 @@
       <c r="Y34" s="19">
         <v>-117.397087</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="19"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>29</v>
       </c>
@@ -2964,8 +3192,11 @@
       <c r="Y35" s="19">
         <v>-115.817162</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="19"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>30</v>
       </c>
@@ -3023,8 +3254,17 @@
       <c r="Y36" s="19">
         <v>-118</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="18">
+        <v>-21.489481000000001</v>
+      </c>
+      <c r="AA36" s="18">
+        <v>-58.335957000000001</v>
+      </c>
+      <c r="AB36" s="19">
+        <v>-107.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>31</v>
       </c>
@@ -3070,8 +3310,11 @@
       <c r="W37" s="18"/>
       <c r="X37" s="18"/>
       <c r="Y37" s="19"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="19"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3097,8 +3340,11 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="14"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="14"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
         <v>5</v>
       </c>
@@ -3127,8 +3373,11 @@
       <c r="W39" s="25"/>
       <c r="X39" s="25"/>
       <c r="Y39" s="25"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
         <v>6</v>
       </c>
@@ -3157,8 +3406,11 @@
       <c r="W40" s="25"/>
       <c r="X40" s="25"/>
       <c r="Y40" s="25"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="25" t="s">
         <v>4</v>
@@ -3185,8 +3437,11 @@
       <c r="W41" s="25"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B43" s="69" t="s">
         <v>9</v>
       </c>
@@ -3197,9 +3452,11 @@
       <c r="Q43" s="69"/>
       <c r="T43" s="69"/>
       <c r="W43" s="69"/>
+      <c r="Z43" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
@@ -3211,8 +3468,9 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
+  <colBreaks count="2" manualBreakCount="2">
     <brk id="13" max="42" man="1"/>
+    <brk id="25" max="42" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -6261,6 +6519,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -6269,11 +6532,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9362,6 +9620,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -9370,12 +9634,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -12458,6 +12716,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -12466,12 +12730,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -15591,6 +15849,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AI4:AK4"/>
@@ -15599,12 +15863,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -18717,6 +18975,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="B4:D4"/>
@@ -18724,13 +18989,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -21850,6 +22108,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="T4:V4"/>
@@ -21858,12 +22122,6 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -24983,6 +25241,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
@@ -24990,13 +25255,6 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -28114,6 +28372,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="Q4:S4"/>
@@ -28122,12 +28386,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -34383,11 +34641,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
@@ -34396,6 +34649,11 @@
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -37635,6 +37893,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -37642,11 +37905,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -53619,11 +53877,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
@@ -53631,6 +53884,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -59786,18 +60044,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
